--- a/Resources/The_Numbers_Data.xlsx
+++ b/Resources/The_Numbers_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin McConchie\Git\Marvel Box Office\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A82F26-05CD-48F0-8D5B-E36F1C08B11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E32BCC-0F52-4C83-B1C8-C0EFDA067F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19845" yWindow="0" windowWidth="18555" windowHeight="14970" xr2:uid="{8E405407-566B-4AE3-8662-C8F5DD645EBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{8E405407-566B-4AE3-8662-C8F5DD645EBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="2134">
   <si>
     <t>The Numbers - Where Data and Movies Meet</t>
   </si>
@@ -6314,9 +6314,6 @@
     <t>The Super Mario Bros. Movie</t>
   </si>
   <si>
-    <t>Champions</t>
-  </si>
-  <si>
     <t>Avatar: The Way of Water</t>
   </si>
   <si>
@@ -6410,31 +6407,37 @@
     <t>Guy Ritchieâs The Covenant</t>
   </si>
   <si>
-    <t>Teenage Mutant Ninja Turtles: Mutant Mayhem</t>
-  </si>
-  <si>
     <t>A Thousand and One</t>
   </si>
   <si>
-    <t>The Popeâs Exorcist</t>
-  </si>
-  <si>
-    <t>Fast X</t>
-  </si>
-  <si>
-    <t>A Good Person</t>
-  </si>
-  <si>
     <t>Scream VI</t>
   </si>
   <si>
-    <t>Martyr or Murderer</t>
-  </si>
-  <si>
     <t>Dwayne Johnson</t>
   </si>
   <si>
-    <t>Courteney Cox</t>
+    <t>Last Sentinel</t>
+  </si>
+  <si>
+    <t>Wicked Part 1</t>
+  </si>
+  <si>
+    <t>About My Father</t>
+  </si>
+  <si>
+    <t>Spider-Man: Across the Spider-Verse</t>
+  </si>
+  <si>
+    <t>Everything Everywhere All At Once</t>
+  </si>
+  <si>
+    <t>Die Hart: The Movie</t>
+  </si>
+  <si>
+    <t>Brendan Fraser</t>
+  </si>
+  <si>
+    <t>Jean-Claude Van D…</t>
   </si>
 </sst>
 </file>
@@ -6797,7 +6800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC9B5A6-5AE5-4E95-B703-8C901B43F860}">
   <dimension ref="A1:F2049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1635" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1566" workbookViewId="0">
       <selection activeCell="A1126" sqref="A1126"/>
     </sheetView>
   </sheetViews>
@@ -7427,10 +7430,10 @@
         <v>106109650</v>
       </c>
       <c r="E115" s="1">
-        <v>192708428</v>
+        <v>198965468</v>
       </c>
       <c r="F115" s="1">
-        <v>425131741</v>
+        <v>448247943</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -7444,10 +7447,10 @@
         <v>181339761</v>
       </c>
       <c r="E116" s="1">
-        <v>453824729</v>
+        <v>453827485</v>
       </c>
       <c r="F116" s="1">
-        <v>854962211</v>
+        <v>854055613</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -8049,10 +8052,10 @@
         <v>136030573</v>
       </c>
       <c r="E148" s="1">
-        <v>365621623</v>
+        <v>365823552</v>
       </c>
       <c r="F148" s="1">
-        <v>924963051</v>
+        <v>925679490</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -8066,10 +8069,10 @@
         <v>5928500000</v>
       </c>
       <c r="E149" s="1">
-        <v>11334270308</v>
+        <v>11340530104</v>
       </c>
       <c r="F149" s="1">
-        <v>28673854585</v>
+        <v>28696064189</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -8109,7 +8112,7 @@
         <v>179</v>
       </c>
       <c r="C155" s="1">
-        <v>198479536</v>
+        <v>198479950</v>
       </c>
       <c r="D155" t="s">
         <v>188</v>
@@ -8123,7 +8126,7 @@
         <v>177</v>
       </c>
       <c r="C156" s="1">
-        <v>80206146</v>
+        <v>80209266</v>
       </c>
       <c r="D156" t="s">
         <v>190</v>
@@ -8145,7 +8148,7 @@
         <v>175</v>
       </c>
       <c r="C158" s="1">
-        <v>186445064</v>
+        <v>186446264</v>
       </c>
       <c r="D158" t="s">
         <v>194</v>
@@ -8192,7 +8195,7 @@
         <v>173</v>
       </c>
       <c r="C162" s="1">
-        <v>95578567</v>
+        <v>95578637</v>
       </c>
       <c r="D162" t="s">
         <v>201</v>
@@ -8239,7 +8242,7 @@
         <v>169</v>
       </c>
       <c r="C166" s="1">
-        <v>251936596</v>
+        <v>251936736</v>
       </c>
       <c r="D166" t="s">
         <v>208</v>
@@ -8327,7 +8330,7 @@
         <v>221</v>
       </c>
       <c r="C174" s="1">
-        <v>79589483</v>
+        <v>79590095</v>
       </c>
       <c r="D174" t="s">
         <v>190</v>
@@ -8352,7 +8355,7 @@
         <v>161</v>
       </c>
       <c r="C176" s="1">
-        <v>151408881</v>
+        <v>151409318</v>
       </c>
       <c r="D176" t="s">
         <v>201</v>
@@ -8405,7 +8408,7 @@
         <v>157</v>
       </c>
       <c r="C180" s="1">
-        <v>70011039</v>
+        <v>70011399</v>
       </c>
       <c r="D180" t="s">
         <v>201</v>
@@ -8466,7 +8469,7 @@
         <v>155</v>
       </c>
       <c r="C185" s="1">
-        <v>85853199</v>
+        <v>85853709</v>
       </c>
       <c r="D185" t="s">
         <v>201</v>
@@ -8513,7 +8516,7 @@
         <v>151</v>
       </c>
       <c r="C189" s="1">
-        <v>80322326</v>
+        <v>80322626</v>
       </c>
       <c r="D189" t="s">
         <v>190</v>
@@ -8527,7 +8530,7 @@
         <v>149</v>
       </c>
       <c r="C190" s="1">
-        <v>72009452</v>
+        <v>72012122</v>
       </c>
       <c r="D190" t="s">
         <v>190</v>
@@ -8576,7 +8579,7 @@
         <v>147</v>
       </c>
       <c r="C195" s="1">
-        <v>74354956</v>
+        <v>74355352</v>
       </c>
       <c r="D195" t="s">
         <v>201</v>
@@ -8590,7 +8593,7 @@
         <v>145</v>
       </c>
       <c r="C196" s="1">
-        <v>104302411</v>
+        <v>104303739</v>
       </c>
       <c r="D196" t="s">
         <v>201</v>
@@ -8604,7 +8607,7 @@
         <v>143</v>
       </c>
       <c r="C197" s="1">
-        <v>104002778</v>
+        <v>104003588</v>
       </c>
       <c r="D197" t="s">
         <v>201</v>
@@ -8679,7 +8682,7 @@
         <v>137</v>
       </c>
       <c r="C203" s="1">
-        <v>107839111</v>
+        <v>107840047</v>
       </c>
       <c r="D203" t="s">
         <v>190</v>
@@ -8693,7 +8696,7 @@
         <v>267</v>
       </c>
       <c r="C204" s="1">
-        <v>71391568</v>
+        <v>71393638</v>
       </c>
       <c r="D204" t="s">
         <v>190</v>
@@ -9116,7 +9119,7 @@
         <v>133</v>
       </c>
       <c r="C246" s="1">
-        <v>23180462</v>
+        <v>23182830</v>
       </c>
       <c r="D246" t="s">
         <v>201</v>
@@ -9170,10 +9173,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B252" t="s">
         <v>2104</v>
-      </c>
-      <c r="B252" t="s">
-        <v>2105</v>
       </c>
       <c r="D252" t="s">
         <v>197</v>
@@ -9181,10 +9184,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B253" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D253" t="s">
         <v>197</v>
@@ -9291,7 +9294,7 @@
         <v>360</v>
       </c>
       <c r="C264" s="1">
-        <v>14419578</v>
+        <v>14421584</v>
       </c>
       <c r="D264" t="s">
         <v>190</v>
@@ -9421,7 +9424,7 @@
         <v>129</v>
       </c>
       <c r="C276" s="1">
-        <v>5926646</v>
+        <v>5933126</v>
       </c>
       <c r="D276" t="s">
         <v>201</v>
@@ -9458,7 +9461,7 @@
         <v>127</v>
       </c>
       <c r="C279" s="1">
-        <v>42762068</v>
+        <v>43176608</v>
       </c>
       <c r="D279" t="s">
         <v>190</v>
@@ -9631,7 +9634,7 @@
         <v>413</v>
       </c>
       <c r="C296" s="1">
-        <v>14095785</v>
+        <v>14830094</v>
       </c>
       <c r="D296" t="s">
         <v>263</v>
@@ -9841,10 +9844,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B317" t="s">
         <v>2107</v>
-      </c>
-      <c r="B317" t="s">
-        <v>2108</v>
       </c>
       <c r="D317" t="s">
         <v>197</v>
@@ -9897,7 +9900,7 @@
         <v>123</v>
       </c>
       <c r="C322" s="1">
-        <v>13123464</v>
+        <v>13582690</v>
       </c>
       <c r="D322" t="s">
         <v>263</v>
@@ -10104,10 +10107,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B343" t="s">
         <v>2109</v>
-      </c>
-      <c r="B343" t="s">
-        <v>2110</v>
       </c>
       <c r="D343" t="s">
         <v>197</v>
@@ -10115,10 +10118,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B344" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D344" t="s">
         <v>197</v>
@@ -10126,10 +10129,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B345" t="s">
         <v>2112</v>
-      </c>
-      <c r="B345" t="s">
-        <v>2113</v>
       </c>
       <c r="D345" t="s">
         <v>197</v>
@@ -10137,10 +10140,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B346" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="D346" t="s">
         <v>197</v>
@@ -10590,7 +10593,7 @@
         <v>181</v>
       </c>
       <c r="C396" s="1">
-        <v>2592806479</v>
+        <v>2594440781</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -10615,22 +10618,22 @@
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -16791,7 +16794,7 @@
         <v>9658183219</v>
       </c>
       <c r="E1599" s="1">
-        <v>11874190577</v>
+        <v>11874133437</v>
       </c>
       <c r="F1599" s="2">
         <v>0.81299999999999994</v>
@@ -16928,13 +16931,13 @@
         <v>1547</v>
       </c>
       <c r="D1606" s="1">
-        <v>7562125945</v>
+        <v>7585242147</v>
       </c>
       <c r="E1606" s="1">
-        <v>10725022317</v>
+        <v>10748138519</v>
       </c>
       <c r="F1606" s="2">
-        <v>0.70499999999999996</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="1607" spans="1:6" x14ac:dyDescent="0.25">
@@ -16951,7 +16954,7 @@
         <v>7243989948</v>
       </c>
       <c r="E1607" s="1">
-        <v>9056258342</v>
+        <v>9056002810</v>
       </c>
       <c r="F1607" s="2">
         <v>0.8</v>
@@ -17151,7 +17154,7 @@
         <v>6483061867</v>
       </c>
       <c r="E1617" s="1">
-        <v>14652329615</v>
+        <v>14666841010</v>
       </c>
       <c r="F1617" s="2">
         <v>0.442</v>
@@ -17308,13 +17311,13 @@
         <v>1584</v>
       </c>
       <c r="D1625" s="1">
-        <v>4361866605</v>
+        <v>4384982807</v>
       </c>
       <c r="E1625" s="1">
-        <v>6690965599</v>
+        <v>6714081801</v>
       </c>
       <c r="F1625" s="2">
-        <v>0.65200000000000002</v>
+        <v>0.65300000000000002</v>
       </c>
     </row>
     <row r="1626" spans="1:6" x14ac:dyDescent="0.25">
@@ -17348,10 +17351,10 @@
         <v>1588</v>
       </c>
       <c r="D1627" s="1">
-        <v>7034548040</v>
+        <v>7033641442</v>
       </c>
       <c r="E1627" s="1">
-        <v>7128305690</v>
+        <v>7127399092</v>
       </c>
       <c r="F1627" s="2">
         <v>0.98699999999999999</v>
@@ -17371,7 +17374,7 @@
         <v>4004346324</v>
       </c>
       <c r="E1628" s="1">
-        <v>9833152097</v>
+        <v>9832853247</v>
       </c>
       <c r="F1628" s="2">
         <v>0.40699999999999997</v>
@@ -17408,10 +17411,10 @@
         <v>1594</v>
       </c>
       <c r="D1630" s="1">
-        <v>7034548040</v>
+        <v>7033641442</v>
       </c>
       <c r="E1630" s="1">
-        <v>8267552005</v>
+        <v>8266645407</v>
       </c>
       <c r="F1630" s="2">
         <v>0.85099999999999998</v>
@@ -17468,10 +17471,10 @@
         <v>1600</v>
       </c>
       <c r="D1633" s="1">
-        <v>7034548040</v>
+        <v>7033641442</v>
       </c>
       <c r="E1633" s="1">
-        <v>7291539063</v>
+        <v>7290632465</v>
       </c>
       <c r="F1633" s="2">
         <v>0.96499999999999997</v>
@@ -17511,7 +17514,7 @@
         <v>3920427058</v>
       </c>
       <c r="E1635" s="1">
-        <v>5121064715</v>
+        <v>5120765865</v>
       </c>
       <c r="F1635" s="2">
         <v>0.76600000000000001</v>
@@ -17531,7 +17534,7 @@
         <v>1944411912</v>
       </c>
       <c r="E1636" s="1">
-        <v>6356785438</v>
+        <v>6356795460</v>
       </c>
       <c r="F1636" s="2">
         <v>0.30599999999999999</v>
@@ -17548,13 +17551,13 @@
         <v>1608</v>
       </c>
       <c r="D1637" s="1">
-        <v>1567134850</v>
+        <v>1590251052</v>
       </c>
       <c r="E1637" s="1">
-        <v>4343573611</v>
+        <v>4366689813</v>
       </c>
       <c r="F1637" s="2">
-        <v>0.36099999999999999</v>
+        <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="1638" spans="1:6" x14ac:dyDescent="0.25">
@@ -17568,13 +17571,13 @@
         <v>1610</v>
       </c>
       <c r="D1638" s="1">
-        <v>1567134850</v>
+        <v>1590251052</v>
       </c>
       <c r="E1638" s="1">
-        <v>3516988033</v>
+        <v>3539805385</v>
       </c>
       <c r="F1638" s="2">
-        <v>0.44600000000000001</v>
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="1639" spans="1:6" x14ac:dyDescent="0.25">
@@ -17588,10 +17591,10 @@
         <v>1612</v>
       </c>
       <c r="D1639" s="1">
-        <v>3343356117</v>
+        <v>3342449519</v>
       </c>
       <c r="E1639" s="1">
-        <v>6990095264</v>
+        <v>6989188666</v>
       </c>
       <c r="F1639" s="2">
         <v>0.47799999999999998</v>
@@ -17651,10 +17654,10 @@
         <v>3920427058</v>
       </c>
       <c r="E1642" s="1">
-        <v>4289048389</v>
+        <v>4340455816</v>
       </c>
       <c r="F1642" s="2">
-        <v>0.91400000000000003</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="1643" spans="1:6" x14ac:dyDescent="0.25">
@@ -17711,10 +17714,10 @@
         <v>4406142614</v>
       </c>
       <c r="E1645" s="1">
-        <v>5342720256</v>
+        <v>5400161490</v>
       </c>
       <c r="F1645" s="2">
-        <v>0.82499999999999996</v>
+        <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="1646" spans="1:6" x14ac:dyDescent="0.25">
@@ -17728,10 +17731,10 @@
         <v>1626</v>
       </c>
       <c r="D1646" s="1">
-        <v>4239816285</v>
+        <v>4238909687</v>
       </c>
       <c r="E1646" s="1">
-        <v>6705241689</v>
+        <v>6704335091</v>
       </c>
       <c r="F1646" s="2">
         <v>0.63200000000000001</v>
@@ -17751,7 +17754,7 @@
         <v>4661033230</v>
       </c>
       <c r="E1647" s="1">
-        <v>6297084063</v>
+        <v>6297092087</v>
       </c>
       <c r="F1647" s="2">
         <v>0.74</v>
@@ -17808,10 +17811,10 @@
         <v>1634</v>
       </c>
       <c r="D1650" s="1">
-        <v>4986188286</v>
+        <v>4985281688</v>
       </c>
       <c r="E1650" s="1">
-        <v>8296693249</v>
+        <v>8295786651</v>
       </c>
       <c r="F1650" s="2">
         <v>0.60099999999999998</v>
@@ -17851,7 +17854,7 @@
         <v>5994991095</v>
       </c>
       <c r="E1652" s="1">
-        <v>6278378370</v>
+        <v>6278659401</v>
       </c>
       <c r="F1652" s="2">
         <v>0.95499999999999996</v>
@@ -17908,10 +17911,10 @@
         <v>1641</v>
       </c>
       <c r="D1655" s="1">
-        <v>2191456531</v>
+        <v>2190549933</v>
       </c>
       <c r="E1655" s="1">
-        <v>8302622690</v>
+        <v>8301716092</v>
       </c>
       <c r="F1655" s="2">
         <v>0.26400000000000001</v>
@@ -17928,7 +17931,7 @@
         <v>379751131</v>
       </c>
       <c r="E1656" s="1">
-        <v>2768792526</v>
+        <v>2768795211</v>
       </c>
       <c r="F1656" s="2">
         <v>0.13700000000000001</v>
@@ -17956,19 +17959,19 @@
     </row>
     <row r="1658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1658" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B1658">
         <v>2</v>
       </c>
       <c r="D1658" s="1">
-        <v>854962211</v>
+        <v>854055613</v>
       </c>
       <c r="E1658" s="1">
-        <v>1840169368</v>
+        <v>1839262770</v>
       </c>
       <c r="F1658" s="2">
-        <v>0.46500000000000002</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="1659" spans="1:6" x14ac:dyDescent="0.25">
@@ -18022,13 +18025,13 @@
         <v>1652</v>
       </c>
       <c r="D1661" s="1">
-        <v>1048276401</v>
+        <v>1071392603</v>
       </c>
       <c r="E1661" s="1">
-        <v>4628483998</v>
+        <v>4651600200</v>
       </c>
       <c r="F1661" s="2">
-        <v>0.22600000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="1662" spans="1:6" x14ac:dyDescent="0.25">
@@ -18105,7 +18108,7 @@
         <v>1142003109</v>
       </c>
       <c r="E1665" s="1">
-        <v>4706397524</v>
+        <v>4706378871</v>
       </c>
       <c r="F1665" s="2">
         <v>0.24299999999999999</v>
@@ -18165,7 +18168,7 @@
         <v>697798493</v>
       </c>
       <c r="E1668" s="1">
-        <v>1826599615</v>
+        <v>1826494037</v>
       </c>
       <c r="F1668" s="2">
         <v>0.38200000000000001</v>
@@ -18265,7 +18268,7 @@
         <v>1084971665</v>
       </c>
       <c r="E1673" s="1">
-        <v>7933567334</v>
+        <v>7934634789</v>
       </c>
       <c r="F1673" s="2">
         <v>0.13700000000000001</v>
@@ -18322,13 +18325,13 @@
         <v>1682</v>
       </c>
       <c r="D1676" s="1">
-        <v>1048276401</v>
+        <v>1071392603</v>
       </c>
       <c r="E1676" s="1">
-        <v>3490978273</v>
+        <v>3514094475</v>
       </c>
       <c r="F1676" s="2">
-        <v>0.3</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="1677" spans="1:6" x14ac:dyDescent="0.25">
@@ -18482,10 +18485,10 @@
         <v>1698</v>
       </c>
       <c r="D1684" s="1">
-        <v>2191456531</v>
+        <v>2190549933</v>
       </c>
       <c r="E1684" s="1">
-        <v>3169530826</v>
+        <v>3168626308</v>
       </c>
       <c r="F1684" s="2">
         <v>0.69099999999999995</v>
@@ -18585,7 +18588,7 @@
         <v>4843091509</v>
       </c>
       <c r="E1689" s="1">
-        <v>8758333894</v>
+        <v>8758035044</v>
       </c>
       <c r="F1689" s="2">
         <v>0.55300000000000005</v>
@@ -18705,7 +18708,7 @@
         <v>1301312597</v>
       </c>
       <c r="E1695" s="1">
-        <v>4865464987</v>
+        <v>4865762821</v>
       </c>
       <c r="F1695" s="2">
         <v>0.26700000000000002</v>
@@ -18882,10 +18885,10 @@
         <v>1738</v>
       </c>
       <c r="D1704" s="1">
-        <v>943990190</v>
+        <v>967106392</v>
       </c>
       <c r="E1704" s="1">
-        <v>944217706</v>
+        <v>967333908</v>
       </c>
       <c r="F1704" s="2">
         <v>1</v>
@@ -19132,13 +19135,13 @@
         <v>38</v>
       </c>
       <c r="C1718" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D1718" s="1">
-        <v>28673854585</v>
+        <v>28696064189</v>
       </c>
       <c r="E1718" s="1">
-        <v>33587081326</v>
+        <v>33609290930</v>
       </c>
       <c r="F1718" s="2">
         <v>0.85399999999999998</v>
@@ -19155,10 +19158,10 @@
         <v>1759</v>
       </c>
       <c r="D1719" s="1">
-        <v>28408280726</v>
+        <v>28430490330</v>
       </c>
       <c r="E1719" s="1">
-        <v>29186519006</v>
+        <v>29208728610</v>
       </c>
       <c r="F1719" s="2">
         <v>0.97299999999999998</v>
@@ -19175,10 +19178,10 @@
         <v>1761</v>
       </c>
       <c r="D1720" s="1">
-        <v>28408280726</v>
+        <v>28430490330</v>
       </c>
       <c r="E1720" s="1">
-        <v>28409152892</v>
+        <v>28431362496</v>
       </c>
       <c r="F1720" s="2">
         <v>1</v>
@@ -19236,10 +19239,10 @@
         <v>1767</v>
       </c>
       <c r="D1725" s="1">
-        <v>21582309795</v>
+        <v>21605425997</v>
       </c>
       <c r="E1725" s="1">
-        <v>25183821898</v>
+        <v>25206938100</v>
       </c>
       <c r="F1725" s="2">
         <v>0.85699999999999998</v>
@@ -19256,10 +19259,10 @@
         <v>1769</v>
       </c>
       <c r="D1726" s="1">
-        <v>22674920229</v>
+        <v>22698036431</v>
       </c>
       <c r="E1726" s="1">
-        <v>29707440508</v>
+        <v>29730556710</v>
       </c>
       <c r="F1726" s="2">
         <v>0.76300000000000001</v>
@@ -19301,10 +19304,10 @@
         <v>1774</v>
       </c>
       <c r="D1729" s="1">
-        <v>15260975824</v>
+        <v>15284092026</v>
       </c>
       <c r="E1729" s="1">
-        <v>15260975824</v>
+        <v>15284092026</v>
       </c>
       <c r="F1729" s="2">
         <v>1</v>
@@ -19357,7 +19360,7 @@
         <v>11570813496</v>
       </c>
       <c r="E1733" s="1">
-        <v>25941553431</v>
+        <v>25941478134</v>
       </c>
       <c r="F1733" s="2">
         <v>0.44600000000000001</v>
@@ -19433,7 +19436,7 @@
         <v>9880117467</v>
       </c>
       <c r="E1738" s="1">
-        <v>21246447181</v>
+        <v>21246278222</v>
       </c>
       <c r="F1738" s="2">
         <v>0.46500000000000002</v>
@@ -19638,7 +19641,7 @@
         <v>9065029143</v>
       </c>
       <c r="E1752" s="1">
-        <v>12493443804</v>
+        <v>12493368507</v>
       </c>
       <c r="F1752" s="2">
         <v>0.72599999999999998</v>
@@ -19959,7 +19962,7 @@
         <v>7235985258</v>
       </c>
       <c r="E1776" s="1">
-        <v>8728577033</v>
+        <v>8728501736</v>
       </c>
       <c r="F1776" s="2">
         <v>0.82899999999999996</v>
@@ -19981,13 +19984,13 @@
         <v>1841</v>
       </c>
       <c r="D1778" s="1">
-        <v>5070464504</v>
+        <v>5093580706</v>
       </c>
       <c r="E1778" s="1">
-        <v>14495956476</v>
+        <v>14519072678</v>
       </c>
       <c r="F1778" s="2">
-        <v>0.35</v>
+        <v>0.35099999999999998</v>
       </c>
     </row>
     <row r="1779" spans="1:6" x14ac:dyDescent="0.25">
@@ -20057,10 +20060,10 @@
         <v>1845</v>
       </c>
       <c r="D1783" s="1">
-        <v>4459489765</v>
+        <v>4458583167</v>
       </c>
       <c r="E1783" s="1">
-        <v>4459489765</v>
+        <v>4458583167</v>
       </c>
       <c r="F1783" s="2">
         <v>1</v>
@@ -20118,10 +20121,10 @@
         <v>1845</v>
       </c>
       <c r="D1788" s="1">
-        <v>2953010822</v>
+        <v>2976127024</v>
       </c>
       <c r="E1788" s="1">
-        <v>2953010822</v>
+        <v>2976127024</v>
       </c>
       <c r="F1788" s="2">
         <v>1</v>
@@ -20179,7 +20182,7 @@
         <v>4373850401</v>
       </c>
       <c r="E1793" s="1">
-        <v>5976927101</v>
+        <v>5977208132</v>
       </c>
       <c r="F1793" s="2">
         <v>0.73199999999999998</v>
@@ -20236,10 +20239,10 @@
         <v>1863</v>
       </c>
       <c r="D1796" s="1">
-        <v>7134524725</v>
+        <v>7157640927</v>
       </c>
       <c r="E1796" s="1">
-        <v>7431344399</v>
+        <v>7454460601</v>
       </c>
       <c r="F1796" s="2">
         <v>0.96</v>
@@ -20301,13 +20304,13 @@
         <v>1869</v>
       </c>
       <c r="D1800" s="1">
-        <v>4188158617</v>
+        <v>4211274819</v>
       </c>
       <c r="E1800" s="1">
-        <v>16154094003</v>
+        <v>16177210205</v>
       </c>
       <c r="F1800" s="2">
-        <v>0.25900000000000001</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="1801" spans="1:6" x14ac:dyDescent="0.25">
@@ -20360,7 +20363,7 @@
         <v>4621886636</v>
       </c>
       <c r="E1804" s="1">
-        <v>37965566337</v>
+        <v>37980077732</v>
       </c>
       <c r="F1804" s="2">
         <v>0.122</v>
@@ -20410,13 +20413,13 @@
         <v>1813</v>
       </c>
       <c r="D1808" s="1">
-        <v>2887529602</v>
+        <v>2910645804</v>
       </c>
       <c r="E1808" s="1">
-        <v>5261278201</v>
+        <v>5284394403</v>
       </c>
       <c r="F1808" s="2">
-        <v>0.54900000000000004</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="1809" spans="1:6" x14ac:dyDescent="0.25">
@@ -20441,7 +20444,7 @@
         <v>6709392984</v>
       </c>
       <c r="E1810" s="1">
-        <v>6993759338</v>
+        <v>6994048790</v>
       </c>
       <c r="F1810" s="2">
         <v>0.95899999999999996</v>
@@ -20461,7 +20464,7 @@
         <v>6709392984</v>
       </c>
       <c r="E1811" s="1">
-        <v>6993759338</v>
+        <v>6994048790</v>
       </c>
       <c r="F1811" s="2">
         <v>0.95899999999999996</v>
@@ -20695,10 +20698,10 @@
         <v>1897</v>
       </c>
       <c r="D1826" s="1">
-        <v>3966524641</v>
+        <v>3965618043</v>
       </c>
       <c r="E1826" s="1">
-        <v>3966524641</v>
+        <v>3965618043</v>
       </c>
       <c r="F1826" s="2">
         <v>1</v>
@@ -20738,10 +20741,10 @@
         <v>3291869166</v>
       </c>
       <c r="E1828" s="1">
-        <v>4333212467</v>
+        <v>4334279922</v>
       </c>
       <c r="F1828" s="2">
-        <v>0.76</v>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="1829" spans="1:6" x14ac:dyDescent="0.25">
@@ -20944,13 +20947,13 @@
         <v>1843</v>
       </c>
       <c r="D1841" s="1">
-        <v>1567134850</v>
+        <v>1590251052</v>
       </c>
       <c r="E1841" s="1">
-        <v>2124763632</v>
+        <v>2147879834</v>
       </c>
       <c r="F1841" s="2">
-        <v>0.73799999999999999</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="1842" spans="1:6" x14ac:dyDescent="0.25">
@@ -21150,13 +21153,13 @@
         <v>1933</v>
       </c>
       <c r="D1854" s="1">
-        <v>1567134850</v>
+        <v>1590251052</v>
       </c>
       <c r="E1854" s="1">
-        <v>11853722016</v>
+        <v>11876838218</v>
       </c>
       <c r="F1854" s="2">
-        <v>0.13200000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="1855" spans="1:6" x14ac:dyDescent="0.25">
@@ -21357,7 +21360,7 @@
         <v>2429149530</v>
       </c>
       <c r="E1866" s="1">
-        <v>8374254705</v>
+        <v>8388766100</v>
       </c>
       <c r="F1866" s="2">
         <v>0.28999999999999998</v>
@@ -21402,13 +21405,13 @@
         <v>1954</v>
       </c>
       <c r="D1869" s="1">
-        <v>2591331115</v>
+        <v>2614447317</v>
       </c>
       <c r="E1869" s="1">
-        <v>13636934390</v>
+        <v>13659751742</v>
       </c>
       <c r="F1869" s="2">
-        <v>0.19</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="1870" spans="1:6" x14ac:dyDescent="0.25">
@@ -21475,13 +21478,13 @@
         <v>1831</v>
       </c>
       <c r="D1874" s="1">
-        <v>2191456531</v>
+        <v>2190549933</v>
       </c>
       <c r="E1874" s="1">
-        <v>2871875276</v>
+        <v>2928515490</v>
       </c>
       <c r="F1874" s="2">
-        <v>0.76300000000000001</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="1875" spans="1:6" x14ac:dyDescent="0.25">
@@ -21494,7 +21497,7 @@
     </row>
     <row r="1876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1876" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B1876">
         <v>2</v>
@@ -21503,10 +21506,10 @@
         <v>1956</v>
       </c>
       <c r="D1876" s="1">
-        <v>425131741</v>
+        <v>448247943</v>
       </c>
       <c r="E1876" s="1">
-        <v>425131741</v>
+        <v>448247943</v>
       </c>
       <c r="F1876" s="2">
         <v>1</v>
@@ -21548,10 +21551,10 @@
         <v>1956</v>
       </c>
       <c r="D1879" s="1">
-        <v>2191456531</v>
+        <v>2190549933</v>
       </c>
       <c r="E1879" s="1">
-        <v>2191456531</v>
+        <v>2190549933</v>
       </c>
       <c r="F1879" s="2">
         <v>1</v>
@@ -21862,10 +21865,10 @@
         <v>1974</v>
       </c>
       <c r="D1901" s="1">
-        <v>2191456531</v>
+        <v>2190549933</v>
       </c>
       <c r="E1901" s="1">
-        <v>2475744542</v>
+        <v>2474837944</v>
       </c>
       <c r="F1901" s="2">
         <v>0.88500000000000001</v>
@@ -21882,13 +21885,13 @@
         <v>1845</v>
       </c>
       <c r="D1902" s="1">
-        <v>826863500</v>
+        <v>849979702</v>
       </c>
       <c r="E1902" s="1">
-        <v>5500773324</v>
+        <v>5523889526</v>
       </c>
       <c r="F1902" s="2">
-        <v>0.15</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="1903" spans="1:6" x14ac:dyDescent="0.25">
@@ -21910,10 +21913,10 @@
         <v>1977</v>
       </c>
       <c r="D1904" s="1">
-        <v>2191456531</v>
+        <v>2190549933</v>
       </c>
       <c r="E1904" s="1">
-        <v>2781890767</v>
+        <v>2780984169</v>
       </c>
       <c r="F1904" s="2">
         <v>0.78800000000000003</v>
@@ -22038,10 +22041,10 @@
         <v>1983</v>
       </c>
       <c r="D1911" s="1">
-        <v>2191456531</v>
+        <v>2190549933</v>
       </c>
       <c r="E1911" s="1">
-        <v>3067679640</v>
+        <v>3066667464</v>
       </c>
       <c r="F1911" s="2">
         <v>0.71399999999999997</v>
@@ -22106,13 +22109,13 @@
         <v>1983</v>
       </c>
       <c r="D1915" s="1">
-        <v>943990190</v>
+        <v>967106392</v>
       </c>
       <c r="E1915" s="1">
-        <v>3196977823</v>
+        <v>3220094025</v>
       </c>
       <c r="F1915" s="2">
-        <v>0.29499999999999998</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="1916" spans="1:6" x14ac:dyDescent="0.25">
@@ -22146,10 +22149,10 @@
         <v>1988</v>
       </c>
       <c r="D1917" s="1">
-        <v>2191456531</v>
+        <v>2190549933</v>
       </c>
       <c r="E1917" s="1">
-        <v>4674740236</v>
+        <v>4673833638</v>
       </c>
       <c r="F1917" s="2">
         <v>0.46899999999999997</v>
@@ -22225,42 +22228,42 @@
     </row>
     <row r="1922" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1922" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1922">
         <v>2</v>
       </c>
       <c r="C1922" t="s">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="D1922" s="1">
-        <v>1611410859</v>
+        <v>1866301475</v>
       </c>
       <c r="E1922" s="1">
-        <v>6013880608</v>
+        <v>11071042572</v>
       </c>
       <c r="F1922" s="2">
-        <v>0.26800000000000002</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="1923" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1923" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B1923">
         <v>2</v>
       </c>
       <c r="C1923" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="D1923" s="1">
-        <v>1866301475</v>
+        <v>1611410859</v>
       </c>
       <c r="E1923" s="1">
-        <v>11071042572</v>
+        <v>6013880608</v>
       </c>
       <c r="F1923" s="2">
-        <v>0.16900000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="1924" spans="1:6" x14ac:dyDescent="0.25">
@@ -22453,7 +22456,7 @@
         <v>1492232623</v>
       </c>
       <c r="E1934" s="1">
-        <v>18093240909</v>
+        <v>18093071950</v>
       </c>
       <c r="F1934" s="2">
         <v>8.2000000000000003E-2</v>
@@ -22473,7 +22476,7 @@
         <v>2610709251</v>
       </c>
       <c r="E1935" s="1">
-        <v>12706893673</v>
+        <v>12758301100</v>
       </c>
       <c r="F1935" s="2">
         <v>0.20499999999999999</v>
@@ -22586,13 +22589,13 @@
         <v>1941</v>
       </c>
       <c r="D1942" s="1">
-        <v>795701517</v>
+        <v>818817719</v>
       </c>
       <c r="E1942" s="1">
-        <v>2362695056</v>
+        <v>2385811258</v>
       </c>
       <c r="F1942" s="2">
-        <v>0.33700000000000002</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="1943" spans="1:6" x14ac:dyDescent="0.25">
@@ -22614,13 +22617,13 @@
         <v>2026</v>
       </c>
       <c r="D1944" s="1">
-        <v>1196014136</v>
+        <v>1219130338</v>
       </c>
       <c r="E1944" s="1">
-        <v>11366282381</v>
+        <v>11389398583</v>
       </c>
       <c r="F1944" s="2">
-        <v>0.105</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="1945" spans="1:6" x14ac:dyDescent="0.25">
@@ -22762,13 +22765,13 @@
         <v>2036</v>
       </c>
       <c r="D1952" s="1">
-        <v>1554707835</v>
+        <v>1577824037</v>
       </c>
       <c r="E1952" s="1">
-        <v>2434646548</v>
+        <v>2457762750</v>
       </c>
       <c r="F1952" s="2">
-        <v>0.63900000000000001</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="1953" spans="1:6" x14ac:dyDescent="0.25">
@@ -23101,13 +23104,13 @@
         <v>2062</v>
       </c>
       <c r="D1973" s="1">
-        <v>1557239263</v>
+        <v>1580355465</v>
       </c>
       <c r="E1973" s="1">
-        <v>4626049239</v>
+        <v>4649165441</v>
       </c>
       <c r="F1973" s="2">
-        <v>0.33700000000000002</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="1974" spans="1:6" x14ac:dyDescent="0.25">
@@ -23266,10 +23269,10 @@
         <v>2075</v>
       </c>
       <c r="D1982" s="1">
-        <v>1557239263</v>
+        <v>1580355465</v>
       </c>
       <c r="E1982" s="1">
-        <v>1557239263</v>
+        <v>1580355465</v>
       </c>
       <c r="F1982" s="2">
         <v>1</v>
@@ -23382,52 +23385,52 @@
     </row>
     <row r="2006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2006" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="2007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2007" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="2008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2008" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="2009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2009" t="s">
-        <v>2089</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="2010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2010" t="s">
-        <v>2123</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="2011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2011" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="2012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2012" t="s">
-        <v>2125</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="2013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2013" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="2014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2014" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="2015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2015" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2017" spans="1:1" x14ac:dyDescent="0.25">
@@ -23442,47 +23445,47 @@
     </row>
     <row r="2019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2019" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="2020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2020" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="2021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2021" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="2022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2022">
-        <v>65</v>
+      <c r="A2022" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="2023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2023" t="s">
-        <v>535</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="2024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2024" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="2025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2025" t="s">
-        <v>2095</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="2026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2026" t="s">
-        <v>2092</v>
+      <c r="A2026">
+        <v>65</v>
       </c>
     </row>
     <row r="2027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2027" t="s">
-        <v>2130</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="2029" spans="1:1" x14ac:dyDescent="0.25">
@@ -23492,7 +23495,7 @@
     </row>
     <row r="2030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2030" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="2031" spans="1:1" x14ac:dyDescent="0.25">
@@ -23502,62 +23505,62 @@
     </row>
     <row r="2032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2032" t="s">
-        <v>2098</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="2033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2033" t="s">
-        <v>1521</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="2034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2034" t="s">
-        <v>2099</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="2035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2035" t="s">
-        <v>1526</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2036" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="2037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2037" t="s">
-        <v>2132</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="2038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2038" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="2039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2039" t="s">
-        <v>1519</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2045" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="2046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2046" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="2047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2047" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="2049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2049" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/The_Numbers_Data.xlsx
+++ b/Resources/The_Numbers_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin McConchie\Git\Marvel Box Office\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E32BCC-0F52-4C83-B1C8-C0EFDA067F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7540849-72F5-47AB-868C-8CA2086E6BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{8E405407-566B-4AE3-8662-C8F5DD645EBE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="2134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="2135">
   <si>
     <t>The Numbers - Where Data and Movies Meet</t>
   </si>
@@ -6320,9 +6320,6 @@
     <t>Puss in Boots: The Last Wish</t>
   </si>
   <si>
-    <t>Jesus Revolution</t>
-  </si>
-  <si>
     <t>Tom Cruise</t>
   </si>
   <si>
@@ -6332,9 +6329,6 @@
     <t>Ed Lauter</t>
   </si>
   <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
     <t>© 1997-2023 Nash Information Services, LLC. All rights reserved.</t>
   </si>
   <si>
@@ -6404,9 +6398,6 @@
     <t>Shazam! Fury of the Gods</t>
   </si>
   <si>
-    <t>Guy Ritchieâs The Covenant</t>
-  </si>
-  <si>
     <t>A Thousand and One</t>
   </si>
   <si>
@@ -6416,28 +6407,40 @@
     <t>Dwayne Johnson</t>
   </si>
   <si>
-    <t>Last Sentinel</t>
-  </si>
-  <si>
-    <t>Wicked Part 1</t>
-  </si>
-  <si>
-    <t>About My Father</t>
-  </si>
-  <si>
     <t>Spider-Man: Across the Spider-Verse</t>
   </si>
   <si>
-    <t>Everything Everywhere All At Once</t>
-  </si>
-  <si>
-    <t>Die Hart: The Movie</t>
-  </si>
-  <si>
-    <t>Brendan Fraser</t>
-  </si>
-  <si>
-    <t>Jean-Claude Van D…</t>
+    <t>Robots</t>
+  </si>
+  <si>
+    <t>Knights of the Zodiac</t>
+  </si>
+  <si>
+    <t>The Popeâs Exorcist</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>Spinning Gold</t>
+  </si>
+  <si>
+    <t>John Wick: Chapter 3 â Parabellum</t>
+  </si>
+  <si>
+    <t>Adam Sandler</t>
+  </si>
+  <si>
+    <t>Keanu Reeves</t>
+  </si>
+  <si>
+    <t>Liv Hewson</t>
+  </si>
+  <si>
+    <t>Olivia Newton-John</t>
+  </si>
+  <si>
+    <t>Jensen Ackles</t>
   </si>
 </sst>
 </file>
@@ -6800,8 +6803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC9B5A6-5AE5-4E95-B703-8C901B43F860}">
   <dimension ref="A1:F2049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1566" workbookViewId="0">
-      <selection activeCell="A1126" sqref="A1126"/>
+    <sheetView tabSelected="1" topLeftCell="A1108" workbookViewId="0">
+      <selection activeCell="B1114" sqref="B1114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7430,10 +7433,10 @@
         <v>106109650</v>
       </c>
       <c r="E115" s="1">
-        <v>198965468</v>
+        <v>207442892</v>
       </c>
       <c r="F115" s="1">
-        <v>448247943</v>
+        <v>462398525</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -7443,14 +7446,17 @@
       <c r="B116" t="s">
         <v>119</v>
       </c>
+      <c r="C116" s="1">
+        <v>250000000</v>
+      </c>
       <c r="D116" s="1">
         <v>181339761</v>
       </c>
       <c r="E116" s="1">
-        <v>453827485</v>
+        <v>453829060</v>
       </c>
       <c r="F116" s="1">
-        <v>854055613</v>
+        <v>854041058</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -8046,16 +8052,16 @@
         <v>180</v>
       </c>
       <c r="C148" s="1">
-        <v>197616667</v>
+        <v>199306452</v>
       </c>
       <c r="D148" s="1">
         <v>136030573</v>
       </c>
       <c r="E148" s="1">
-        <v>365823552</v>
+        <v>366097068</v>
       </c>
       <c r="F148" s="1">
-        <v>925679490</v>
+        <v>926135491</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -8066,13 +8072,13 @@
         <v>44</v>
       </c>
       <c r="C149" s="1">
-        <v>5928500000</v>
+        <v>6178500000</v>
       </c>
       <c r="E149" s="1">
-        <v>11340530104</v>
+        <v>11349009103</v>
       </c>
       <c r="F149" s="1">
-        <v>28696064189</v>
+        <v>28710200216</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -8112,7 +8118,7 @@
         <v>179</v>
       </c>
       <c r="C155" s="1">
-        <v>198479950</v>
+        <v>198481961</v>
       </c>
       <c r="D155" t="s">
         <v>188</v>
@@ -8126,7 +8132,7 @@
         <v>177</v>
       </c>
       <c r="C156" s="1">
-        <v>80209266</v>
+        <v>80213882</v>
       </c>
       <c r="D156" t="s">
         <v>190</v>
@@ -8148,7 +8154,7 @@
         <v>175</v>
       </c>
       <c r="C158" s="1">
-        <v>186446264</v>
+        <v>186448224</v>
       </c>
       <c r="D158" t="s">
         <v>194</v>
@@ -8195,7 +8201,7 @@
         <v>173</v>
       </c>
       <c r="C162" s="1">
-        <v>95578637</v>
+        <v>95578867</v>
       </c>
       <c r="D162" t="s">
         <v>201</v>
@@ -8209,7 +8215,7 @@
         <v>203</v>
       </c>
       <c r="C163" s="1">
-        <v>152065627</v>
+        <v>152067427</v>
       </c>
       <c r="D163" t="s">
         <v>201</v>
@@ -8242,7 +8248,7 @@
         <v>169</v>
       </c>
       <c r="C166" s="1">
-        <v>251936736</v>
+        <v>251938563</v>
       </c>
       <c r="D166" t="s">
         <v>208</v>
@@ -8286,7 +8292,7 @@
         <v>167</v>
       </c>
       <c r="C170" s="1">
-        <v>87041643</v>
+        <v>87043179</v>
       </c>
       <c r="D170" t="s">
         <v>188</v>
@@ -8330,7 +8336,7 @@
         <v>221</v>
       </c>
       <c r="C174" s="1">
-        <v>79590095</v>
+        <v>79591643</v>
       </c>
       <c r="D174" t="s">
         <v>190</v>
@@ -8355,7 +8361,7 @@
         <v>161</v>
       </c>
       <c r="C176" s="1">
-        <v>151409318</v>
+        <v>151418552</v>
       </c>
       <c r="D176" t="s">
         <v>201</v>
@@ -8408,7 +8414,7 @@
         <v>157</v>
       </c>
       <c r="C180" s="1">
-        <v>70011399</v>
+        <v>70012287</v>
       </c>
       <c r="D180" t="s">
         <v>201</v>
@@ -8469,7 +8475,7 @@
         <v>155</v>
       </c>
       <c r="C185" s="1">
-        <v>85853709</v>
+        <v>85854236</v>
       </c>
       <c r="D185" t="s">
         <v>201</v>
@@ -8483,7 +8489,7 @@
         <v>153</v>
       </c>
       <c r="C186" s="1">
-        <v>59738559</v>
+        <v>59739805</v>
       </c>
       <c r="D186" t="s">
         <v>194</v>
@@ -8516,7 +8522,7 @@
         <v>151</v>
       </c>
       <c r="C189" s="1">
-        <v>80322626</v>
+        <v>80325386</v>
       </c>
       <c r="D189" t="s">
         <v>190</v>
@@ -8530,7 +8536,7 @@
         <v>149</v>
       </c>
       <c r="C190" s="1">
-        <v>72012122</v>
+        <v>72014321</v>
       </c>
       <c r="D190" t="s">
         <v>190</v>
@@ -8579,7 +8585,7 @@
         <v>147</v>
       </c>
       <c r="C195" s="1">
-        <v>74355352</v>
+        <v>74359182</v>
       </c>
       <c r="D195" t="s">
         <v>201</v>
@@ -8593,7 +8599,7 @@
         <v>145</v>
       </c>
       <c r="C196" s="1">
-        <v>104303739</v>
+        <v>104308989</v>
       </c>
       <c r="D196" t="s">
         <v>201</v>
@@ -8607,7 +8613,7 @@
         <v>143</v>
       </c>
       <c r="C197" s="1">
-        <v>104003588</v>
+        <v>104005262</v>
       </c>
       <c r="D197" t="s">
         <v>201</v>
@@ -8632,7 +8638,7 @@
         <v>141</v>
       </c>
       <c r="C199" s="1">
-        <v>50775979</v>
+        <v>50778787</v>
       </c>
       <c r="D199" t="s">
         <v>201</v>
@@ -8657,7 +8663,7 @@
         <v>139</v>
       </c>
       <c r="C201" s="1">
-        <v>67430883</v>
+        <v>67431414</v>
       </c>
       <c r="D201" t="s">
         <v>263</v>
@@ -8682,7 +8688,7 @@
         <v>137</v>
       </c>
       <c r="C203" s="1">
-        <v>107840047</v>
+        <v>107841339</v>
       </c>
       <c r="D203" t="s">
         <v>190</v>
@@ -8696,7 +8702,7 @@
         <v>267</v>
       </c>
       <c r="C204" s="1">
-        <v>71393638</v>
+        <v>71396751</v>
       </c>
       <c r="D204" t="s">
         <v>190</v>
@@ -9119,7 +9125,7 @@
         <v>133</v>
       </c>
       <c r="C246" s="1">
-        <v>23182830</v>
+        <v>23188494</v>
       </c>
       <c r="D246" t="s">
         <v>201</v>
@@ -9173,10 +9179,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="B252" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="D252" t="s">
         <v>197</v>
@@ -9184,10 +9190,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B253" t="s">
         <v>2103</v>
-      </c>
-      <c r="B253" t="s">
-        <v>2105</v>
       </c>
       <c r="D253" t="s">
         <v>197</v>
@@ -9294,7 +9300,7 @@
         <v>360</v>
       </c>
       <c r="C264" s="1">
-        <v>14421584</v>
+        <v>14423896</v>
       </c>
       <c r="D264" t="s">
         <v>190</v>
@@ -9424,7 +9430,7 @@
         <v>129</v>
       </c>
       <c r="C276" s="1">
-        <v>5933126</v>
+        <v>5941301</v>
       </c>
       <c r="D276" t="s">
         <v>201</v>
@@ -9461,7 +9467,7 @@
         <v>127</v>
       </c>
       <c r="C279" s="1">
-        <v>43176608</v>
+        <v>43610438</v>
       </c>
       <c r="D279" t="s">
         <v>190</v>
@@ -9634,7 +9640,7 @@
         <v>413</v>
       </c>
       <c r="C296" s="1">
-        <v>14830094</v>
+        <v>14950768</v>
       </c>
       <c r="D296" t="s">
         <v>263</v>
@@ -9844,10 +9850,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B317" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="D317" t="s">
         <v>197</v>
@@ -9900,7 +9906,7 @@
         <v>123</v>
       </c>
       <c r="C322" s="1">
-        <v>13582690</v>
+        <v>14260089</v>
       </c>
       <c r="D322" t="s">
         <v>263</v>
@@ -10107,10 +10113,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B343" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="D343" t="s">
         <v>197</v>
@@ -10118,10 +10124,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B344" t="s">
         <v>2108</v>
-      </c>
-      <c r="B344" t="s">
-        <v>2110</v>
       </c>
       <c r="D344" t="s">
         <v>197</v>
@@ -10129,10 +10135,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="B345" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="D345" t="s">
         <v>197</v>
@@ -10140,10 +10146,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B346" t="s">
         <v>2111</v>
-      </c>
-      <c r="B346" t="s">
-        <v>2113</v>
       </c>
       <c r="D346" t="s">
         <v>197</v>
@@ -10593,7 +10599,7 @@
         <v>181</v>
       </c>
       <c r="C396" s="1">
-        <v>2594440781</v>
+        <v>2595739715</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -10618,22 +10624,22 @@
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -16794,7 +16800,7 @@
         <v>9658183219</v>
       </c>
       <c r="E1599" s="1">
-        <v>11874133437</v>
+        <v>11874162500</v>
       </c>
       <c r="F1599" s="2">
         <v>0.81299999999999994</v>
@@ -16854,7 +16860,7 @@
         <v>9232190692</v>
       </c>
       <c r="E1602" s="1">
-        <v>15089715210</v>
+        <v>15089746859</v>
       </c>
       <c r="F1602" s="2">
         <v>0.61199999999999999</v>
@@ -16931,10 +16937,10 @@
         <v>1547</v>
       </c>
       <c r="D1606" s="1">
-        <v>7585242147</v>
+        <v>7599392729</v>
       </c>
       <c r="E1606" s="1">
-        <v>10748138519</v>
+        <v>10762289101</v>
       </c>
       <c r="F1606" s="2">
         <v>0.70599999999999996</v>
@@ -16954,7 +16960,7 @@
         <v>7243989948</v>
       </c>
       <c r="E1607" s="1">
-        <v>9056002810</v>
+        <v>9056321598</v>
       </c>
       <c r="F1607" s="2">
         <v>0.8</v>
@@ -17154,7 +17160,7 @@
         <v>6483061867</v>
       </c>
       <c r="E1617" s="1">
-        <v>14666841010</v>
+        <v>14676067628</v>
       </c>
       <c r="F1617" s="2">
         <v>0.442</v>
@@ -17311,13 +17317,13 @@
         <v>1584</v>
       </c>
       <c r="D1625" s="1">
-        <v>4384982807</v>
+        <v>4399133389</v>
       </c>
       <c r="E1625" s="1">
-        <v>6714081801</v>
+        <v>6728232383</v>
       </c>
       <c r="F1625" s="2">
-        <v>0.65300000000000002</v>
+        <v>0.65400000000000003</v>
       </c>
     </row>
     <row r="1626" spans="1:6" x14ac:dyDescent="0.25">
@@ -17351,10 +17357,10 @@
         <v>1588</v>
       </c>
       <c r="D1627" s="1">
-        <v>7033641442</v>
+        <v>7033626887</v>
       </c>
       <c r="E1627" s="1">
-        <v>7127399092</v>
+        <v>7127384537</v>
       </c>
       <c r="F1627" s="2">
         <v>0.98699999999999999</v>
@@ -17374,7 +17380,7 @@
         <v>4004346324</v>
       </c>
       <c r="E1628" s="1">
-        <v>9832853247</v>
+        <v>9831111276</v>
       </c>
       <c r="F1628" s="2">
         <v>0.40699999999999997</v>
@@ -17411,10 +17417,10 @@
         <v>1594</v>
       </c>
       <c r="D1630" s="1">
-        <v>7033641442</v>
+        <v>7033626887</v>
       </c>
       <c r="E1630" s="1">
-        <v>8266645407</v>
+        <v>8266630852</v>
       </c>
       <c r="F1630" s="2">
         <v>0.85099999999999998</v>
@@ -17471,10 +17477,10 @@
         <v>1600</v>
       </c>
       <c r="D1633" s="1">
-        <v>7033641442</v>
+        <v>7033626887</v>
       </c>
       <c r="E1633" s="1">
-        <v>7290632465</v>
+        <v>7290617910</v>
       </c>
       <c r="F1633" s="2">
         <v>0.96499999999999997</v>
@@ -17534,7 +17540,7 @@
         <v>1944411912</v>
       </c>
       <c r="E1636" s="1">
-        <v>6356795460</v>
+        <v>6356808160</v>
       </c>
       <c r="F1636" s="2">
         <v>0.30599999999999999</v>
@@ -17551,13 +17557,13 @@
         <v>1608</v>
       </c>
       <c r="D1637" s="1">
-        <v>1590251052</v>
+        <v>1604401634</v>
       </c>
       <c r="E1637" s="1">
-        <v>4366689813</v>
+        <v>4380840395</v>
       </c>
       <c r="F1637" s="2">
-        <v>0.36399999999999999</v>
+        <v>0.36599999999999999</v>
       </c>
     </row>
     <row r="1638" spans="1:6" x14ac:dyDescent="0.25">
@@ -17571,13 +17577,13 @@
         <v>1610</v>
       </c>
       <c r="D1638" s="1">
-        <v>1590251052</v>
+        <v>1604401634</v>
       </c>
       <c r="E1638" s="1">
-        <v>3539805385</v>
+        <v>3553955967</v>
       </c>
       <c r="F1638" s="2">
-        <v>0.44900000000000001</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="1639" spans="1:6" x14ac:dyDescent="0.25">
@@ -17591,10 +17597,10 @@
         <v>1612</v>
       </c>
       <c r="D1639" s="1">
-        <v>3342449519</v>
+        <v>3342434964</v>
       </c>
       <c r="E1639" s="1">
-        <v>6989188666</v>
+        <v>6989174111</v>
       </c>
       <c r="F1639" s="2">
         <v>0.47799999999999998</v>
@@ -17602,62 +17608,62 @@
     </row>
     <row r="1640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1640" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="B1640">
         <v>3</v>
       </c>
       <c r="C1640" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="D1640" s="1">
-        <v>1854857215</v>
+        <v>1944411912</v>
       </c>
       <c r="E1640" s="1">
-        <v>1904083828</v>
+        <v>4025458469</v>
       </c>
       <c r="F1640" s="2">
-        <v>0.97399999999999998</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="1641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1641" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="B1641">
         <v>3</v>
       </c>
       <c r="C1641" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="D1641" s="1">
-        <v>1944411912</v>
+        <v>3920427058</v>
       </c>
       <c r="E1641" s="1">
-        <v>4025611792</v>
+        <v>4391241099</v>
       </c>
       <c r="F1641" s="2">
-        <v>0.48299999999999998</v>
+        <v>0.89300000000000002</v>
       </c>
     </row>
     <row r="1642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1642" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="B1642">
         <v>3</v>
       </c>
       <c r="C1642" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="D1642" s="1">
-        <v>3920427058</v>
+        <v>1854857215</v>
       </c>
       <c r="E1642" s="1">
-        <v>4340455816</v>
+        <v>1904083828</v>
       </c>
       <c r="F1642" s="2">
-        <v>0.90300000000000002</v>
+        <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="1643" spans="1:6" x14ac:dyDescent="0.25">
@@ -17714,10 +17720,10 @@
         <v>4406142614</v>
       </c>
       <c r="E1645" s="1">
-        <v>5400161490</v>
+        <v>5446722000</v>
       </c>
       <c r="F1645" s="2">
-        <v>0.81599999999999995</v>
+        <v>0.80900000000000005</v>
       </c>
     </row>
     <row r="1646" spans="1:6" x14ac:dyDescent="0.25">
@@ -17731,10 +17737,10 @@
         <v>1626</v>
       </c>
       <c r="D1646" s="1">
-        <v>4238909687</v>
+        <v>4238895132</v>
       </c>
       <c r="E1646" s="1">
-        <v>6704335091</v>
+        <v>6704320536</v>
       </c>
       <c r="F1646" s="2">
         <v>0.63200000000000001</v>
@@ -17754,7 +17760,7 @@
         <v>4661033230</v>
       </c>
       <c r="E1647" s="1">
-        <v>6297092087</v>
+        <v>6297095937</v>
       </c>
       <c r="F1647" s="2">
         <v>0.74</v>
@@ -17774,7 +17780,7 @@
         <v>3920427058</v>
       </c>
       <c r="E1648" s="1">
-        <v>4144439196</v>
+        <v>4144550948</v>
       </c>
       <c r="F1648" s="2">
         <v>0.94599999999999995</v>
@@ -17802,42 +17808,42 @@
     </row>
     <row r="1650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1650" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B1650">
         <v>3</v>
       </c>
       <c r="C1650" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="D1650" s="1">
-        <v>4985281688</v>
+        <v>3888660889</v>
       </c>
       <c r="E1650" s="1">
-        <v>8295786651</v>
+        <v>6108808859</v>
       </c>
       <c r="F1650" s="2">
-        <v>0.60099999999999998</v>
+        <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="1651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1651" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B1651">
         <v>3</v>
       </c>
       <c r="C1651" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D1651" s="1">
-        <v>3888660889</v>
+        <v>4985267133</v>
       </c>
       <c r="E1651" s="1">
-        <v>6108808859</v>
+        <v>8295772096</v>
       </c>
       <c r="F1651" s="2">
-        <v>0.63700000000000001</v>
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="1652" spans="1:6" x14ac:dyDescent="0.25">
@@ -17854,7 +17860,7 @@
         <v>5994991095</v>
       </c>
       <c r="E1652" s="1">
-        <v>6278659401</v>
+        <v>6280022286</v>
       </c>
       <c r="F1652" s="2">
         <v>0.95499999999999996</v>
@@ -17911,10 +17917,10 @@
         <v>1641</v>
       </c>
       <c r="D1655" s="1">
-        <v>2190549933</v>
+        <v>2190535378</v>
       </c>
       <c r="E1655" s="1">
-        <v>8301716092</v>
+        <v>8301701537</v>
       </c>
       <c r="F1655" s="2">
         <v>0.26400000000000001</v>
@@ -17931,7 +17937,7 @@
         <v>379751131</v>
       </c>
       <c r="E1656" s="1">
-        <v>2768795211</v>
+        <v>2768809721</v>
       </c>
       <c r="F1656" s="2">
         <v>0.13700000000000001</v>
@@ -17959,16 +17965,16 @@
     </row>
     <row r="1658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1658" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B1658">
         <v>2</v>
       </c>
       <c r="D1658" s="1">
-        <v>854055613</v>
+        <v>854041058</v>
       </c>
       <c r="E1658" s="1">
-        <v>1839262770</v>
+        <v>1839248215</v>
       </c>
       <c r="F1658" s="2">
         <v>0.46400000000000002</v>
@@ -18025,133 +18031,133 @@
         <v>1652</v>
       </c>
       <c r="D1661" s="1">
-        <v>1071392603</v>
+        <v>1085543185</v>
       </c>
       <c r="E1661" s="1">
-        <v>4651600200</v>
+        <v>4673119024</v>
       </c>
       <c r="F1661" s="2">
-        <v>0.23</v>
+        <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="1662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1662" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="B1662">
         <v>2</v>
       </c>
       <c r="C1662" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="D1662" s="1">
-        <v>1900458489</v>
+        <v>1639970358</v>
       </c>
       <c r="E1662" s="1">
-        <v>9063053792</v>
+        <v>4043338636</v>
       </c>
       <c r="F1662" s="2">
-        <v>0.21</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="1663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1663" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B1663">
         <v>2</v>
       </c>
       <c r="C1663" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="D1663" s="1">
-        <v>1628568160</v>
+        <v>1900458489</v>
       </c>
       <c r="E1663" s="1">
-        <v>3713765962</v>
+        <v>9134260557</v>
       </c>
       <c r="F1663" s="2">
-        <v>0.439</v>
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="1664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1664" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B1664">
         <v>2</v>
       </c>
       <c r="C1664" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D1664" s="1">
-        <v>1639970358</v>
+        <v>1628568160</v>
       </c>
       <c r="E1664" s="1">
-        <v>4043338636</v>
+        <v>3713765962</v>
       </c>
       <c r="F1664" s="2">
-        <v>0.40600000000000003</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="1665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="B1665">
         <v>2</v>
       </c>
       <c r="C1665" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="D1665" s="1">
-        <v>1142003109</v>
+        <v>1531307853</v>
       </c>
       <c r="E1665" s="1">
-        <v>4706378871</v>
+        <v>3566852980</v>
       </c>
       <c r="F1665" s="2">
-        <v>0.24299999999999999</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="1666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1666" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="B1666">
         <v>2</v>
       </c>
       <c r="C1666" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="D1666" s="1">
-        <v>1531307853</v>
+        <v>1093929134</v>
       </c>
       <c r="E1666" s="1">
-        <v>3566852980</v>
+        <v>1563628413</v>
       </c>
       <c r="F1666" s="2">
-        <v>0.42899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="1667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1667" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="B1667">
         <v>2</v>
       </c>
       <c r="C1667" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="D1667" s="1">
-        <v>1093929134</v>
+        <v>1142003109</v>
       </c>
       <c r="E1667" s="1">
-        <v>1563628413</v>
+        <v>4706384916</v>
       </c>
       <c r="F1667" s="2">
-        <v>0.7</v>
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="1668" spans="1:6" x14ac:dyDescent="0.25">
@@ -18196,62 +18202,62 @@
     </row>
     <row r="1670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1670" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="B1670">
         <v>2</v>
       </c>
       <c r="C1670" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="D1670" s="1">
-        <v>1142003109</v>
+        <v>1206327936</v>
       </c>
       <c r="E1670" s="1">
-        <v>1718152307</v>
+        <v>2063397045</v>
       </c>
       <c r="F1670" s="2">
-        <v>0.66500000000000004</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="1671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1671" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B1671">
         <v>2</v>
       </c>
       <c r="C1671" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D1671" s="1">
-        <v>1206327936</v>
+        <v>1142003109</v>
       </c>
       <c r="E1671" s="1">
-        <v>2063397045</v>
+        <v>1718152307</v>
       </c>
       <c r="F1671" s="2">
-        <v>0.58499999999999996</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="1672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1672" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B1672">
         <v>2</v>
       </c>
       <c r="C1672" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="D1672" s="1">
-        <v>869087963</v>
+        <v>1647616906</v>
       </c>
       <c r="E1672" s="1">
-        <v>2720151838</v>
+        <v>5931767306</v>
       </c>
       <c r="F1672" s="2">
-        <v>0.31900000000000001</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="1673" spans="1:6" x14ac:dyDescent="0.25">
@@ -18268,7 +18274,7 @@
         <v>1084971665</v>
       </c>
       <c r="E1673" s="1">
-        <v>7934634789</v>
+        <v>7935363578</v>
       </c>
       <c r="F1673" s="2">
         <v>0.13700000000000001</v>
@@ -18276,22 +18282,22 @@
     </row>
     <row r="1674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1674" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="B1674">
         <v>2</v>
       </c>
       <c r="C1674" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="D1674" s="1">
-        <v>1647616906</v>
+        <v>869087963</v>
       </c>
       <c r="E1674" s="1">
-        <v>5931767306</v>
+        <v>2720151838</v>
       </c>
       <c r="F1674" s="2">
-        <v>0.27800000000000002</v>
+        <v>0.31900000000000001</v>
       </c>
     </row>
     <row r="1675" spans="1:6" x14ac:dyDescent="0.25">
@@ -18325,13 +18331,13 @@
         <v>1682</v>
       </c>
       <c r="D1676" s="1">
-        <v>1071392603</v>
+        <v>1085543185</v>
       </c>
       <c r="E1676" s="1">
-        <v>3514094475</v>
+        <v>3528245057</v>
       </c>
       <c r="F1676" s="2">
-        <v>0.30499999999999999</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="1677" spans="1:6" x14ac:dyDescent="0.25">
@@ -18388,10 +18394,10 @@
         <v>1495085294</v>
       </c>
       <c r="E1679" s="1">
-        <v>3127317166</v>
+        <v>3198523931</v>
       </c>
       <c r="F1679" s="2">
-        <v>0.47799999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="1680" spans="1:6" x14ac:dyDescent="0.25">
@@ -18456,42 +18462,42 @@
     </row>
     <row r="1683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="B1683">
         <v>2</v>
       </c>
       <c r="C1683" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="D1683" s="1">
-        <v>1142003109</v>
+        <v>2190535378</v>
       </c>
       <c r="E1683" s="1">
-        <v>1237246380</v>
+        <v>3168612960</v>
       </c>
       <c r="F1683" s="2">
-        <v>0.92300000000000004</v>
+        <v>0.69099999999999995</v>
       </c>
     </row>
     <row r="1684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1684" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="B1684">
         <v>2</v>
       </c>
       <c r="C1684" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D1684" s="1">
-        <v>2190549933</v>
+        <v>1142003109</v>
       </c>
       <c r="E1684" s="1">
-        <v>3168626308</v>
+        <v>1237246380</v>
       </c>
       <c r="F1684" s="2">
-        <v>0.69099999999999995</v>
+        <v>0.92300000000000004</v>
       </c>
     </row>
     <row r="1685" spans="1:6" x14ac:dyDescent="0.25">
@@ -18536,42 +18542,42 @@
     </row>
     <row r="1687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1687" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="B1687">
         <v>2</v>
       </c>
       <c r="C1687" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="D1687" s="1">
-        <v>1719570741</v>
+        <v>1335558278</v>
       </c>
       <c r="E1687" s="1">
-        <v>8460010592</v>
+        <v>3036119866</v>
       </c>
       <c r="F1687" s="2">
-        <v>0.20300000000000001</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="1688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1688" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B1688">
         <v>2</v>
       </c>
       <c r="C1688" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D1688" s="1">
-        <v>1335558278</v>
+        <v>1719570741</v>
       </c>
       <c r="E1688" s="1">
-        <v>3036119866</v>
+        <v>8460010592</v>
       </c>
       <c r="F1688" s="2">
-        <v>0.44</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="1689" spans="1:6" x14ac:dyDescent="0.25">
@@ -18608,10 +18614,10 @@
         <v>2488393906</v>
       </c>
       <c r="E1690" s="1">
-        <v>4174691966</v>
+        <v>4181998208</v>
       </c>
       <c r="F1690" s="2">
-        <v>0.59599999999999997</v>
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="1691" spans="1:6" x14ac:dyDescent="0.25">
@@ -18628,7 +18634,7 @@
         <v>2788319536</v>
       </c>
       <c r="E1691" s="1">
-        <v>5706440393</v>
+        <v>5706440497</v>
       </c>
       <c r="F1691" s="2">
         <v>0.48899999999999999</v>
@@ -18676,42 +18682,42 @@
     </row>
     <row r="1694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1694" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="B1694">
         <v>2</v>
       </c>
       <c r="C1694" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="D1694" s="1">
-        <v>2819242149</v>
+        <v>1301312597</v>
       </c>
       <c r="E1694" s="1">
-        <v>5744267136</v>
+        <v>4868197153</v>
       </c>
       <c r="F1694" s="2">
-        <v>0.49099999999999999</v>
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="1695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1695" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B1695">
         <v>2</v>
       </c>
       <c r="C1695" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D1695" s="1">
-        <v>1301312597</v>
+        <v>2819242149</v>
       </c>
       <c r="E1695" s="1">
-        <v>4865762821</v>
+        <v>5744267136</v>
       </c>
       <c r="F1695" s="2">
-        <v>0.26700000000000002</v>
+        <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="1696" spans="1:6" x14ac:dyDescent="0.25">
@@ -18776,42 +18782,42 @@
     </row>
     <row r="1699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B1699">
         <v>2</v>
       </c>
       <c r="C1699" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D1699" s="1">
-        <v>2926631045</v>
+        <v>1866301475</v>
       </c>
       <c r="E1699" s="1">
-        <v>3064872845</v>
+        <v>1866301475</v>
       </c>
       <c r="F1699" s="2">
-        <v>0.95499999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="B1700">
         <v>2</v>
       </c>
       <c r="C1700" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="D1700" s="1">
-        <v>1866301475</v>
+        <v>2926631045</v>
       </c>
       <c r="E1700" s="1">
-        <v>1866301475</v>
+        <v>3064872845</v>
       </c>
       <c r="F1700" s="2">
-        <v>1</v>
+        <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="1701" spans="1:6" x14ac:dyDescent="0.25">
@@ -18836,82 +18842,82 @@
     </row>
     <row r="1702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B1702">
         <v>2</v>
       </c>
       <c r="C1702" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="D1702" s="1">
-        <v>1233260338</v>
+        <v>2285982606</v>
       </c>
       <c r="E1702" s="1">
-        <v>1827824659</v>
+        <v>2290311456</v>
       </c>
       <c r="F1702" s="2">
-        <v>0.67500000000000004</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="1703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B1703">
         <v>2</v>
       </c>
       <c r="C1703" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="D1703" s="1">
-        <v>2285982606</v>
+        <v>1233260338</v>
       </c>
       <c r="E1703" s="1">
-        <v>2290311456</v>
+        <v>1827824659</v>
       </c>
       <c r="F1703" s="2">
-        <v>0.998</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="1704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="B1704">
         <v>2</v>
       </c>
       <c r="C1704" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="D1704" s="1">
-        <v>967106392</v>
+        <v>3509133644</v>
       </c>
       <c r="E1704" s="1">
-        <v>967333908</v>
+        <v>5339447038</v>
       </c>
       <c r="F1704" s="2">
-        <v>1</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="1705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B1705">
         <v>2</v>
       </c>
       <c r="C1705" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="D1705" s="1">
-        <v>3509133644</v>
+        <v>981256974</v>
       </c>
       <c r="E1705" s="1">
-        <v>5339315397</v>
+        <v>981484490</v>
       </c>
       <c r="F1705" s="2">
-        <v>0.65700000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1706" spans="1:6" x14ac:dyDescent="0.25">
@@ -18968,7 +18974,7 @@
         <v>4843091509</v>
       </c>
       <c r="E1708" s="1">
-        <v>7801594351</v>
+        <v>7801594597</v>
       </c>
       <c r="F1708" s="2">
         <v>0.621</v>
@@ -19135,13 +19141,13 @@
         <v>38</v>
       </c>
       <c r="C1718" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="D1718" s="1">
-        <v>28696064189</v>
+        <v>28710200216</v>
       </c>
       <c r="E1718" s="1">
-        <v>33609290930</v>
+        <v>33623426957</v>
       </c>
       <c r="F1718" s="2">
         <v>0.85399999999999998</v>
@@ -19158,10 +19164,10 @@
         <v>1759</v>
       </c>
       <c r="D1719" s="1">
-        <v>28430490330</v>
+        <v>28444626357</v>
       </c>
       <c r="E1719" s="1">
-        <v>29208728610</v>
+        <v>29222864637</v>
       </c>
       <c r="F1719" s="2">
         <v>0.97299999999999998</v>
@@ -19178,10 +19184,10 @@
         <v>1761</v>
       </c>
       <c r="D1720" s="1">
-        <v>28430490330</v>
+        <v>28444626357</v>
       </c>
       <c r="E1720" s="1">
-        <v>28431362496</v>
+        <v>28445498523</v>
       </c>
       <c r="F1720" s="2">
         <v>1</v>
@@ -19239,10 +19245,10 @@
         <v>1767</v>
       </c>
       <c r="D1725" s="1">
-        <v>21605425997</v>
+        <v>21619576579</v>
       </c>
       <c r="E1725" s="1">
-        <v>25206938100</v>
+        <v>25221088682</v>
       </c>
       <c r="F1725" s="2">
         <v>0.85699999999999998</v>
@@ -19259,13 +19265,13 @@
         <v>1769</v>
       </c>
       <c r="D1726" s="1">
-        <v>22698036431</v>
+        <v>22712187013</v>
       </c>
       <c r="E1726" s="1">
-        <v>29730556710</v>
+        <v>29744707292</v>
       </c>
       <c r="F1726" s="2">
-        <v>0.76300000000000001</v>
+        <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="1727" spans="1:6" x14ac:dyDescent="0.25">
@@ -19304,10 +19310,10 @@
         <v>1774</v>
       </c>
       <c r="D1729" s="1">
-        <v>15284092026</v>
+        <v>15298242608</v>
       </c>
       <c r="E1729" s="1">
-        <v>15284092026</v>
+        <v>15298242608</v>
       </c>
       <c r="F1729" s="2">
         <v>1</v>
@@ -19962,7 +19968,7 @@
         <v>7235985258</v>
       </c>
       <c r="E1776" s="1">
-        <v>8728501736</v>
+        <v>8728498037</v>
       </c>
       <c r="F1776" s="2">
         <v>0.82899999999999996</v>
@@ -19984,10 +19990,10 @@
         <v>1841</v>
       </c>
       <c r="D1778" s="1">
-        <v>5093580706</v>
+        <v>5107731288</v>
       </c>
       <c r="E1778" s="1">
-        <v>14519072678</v>
+        <v>14533223260</v>
       </c>
       <c r="F1778" s="2">
         <v>0.35099999999999998</v>
@@ -20060,10 +20066,10 @@
         <v>1845</v>
       </c>
       <c r="D1783" s="1">
-        <v>4458583167</v>
+        <v>4458568612</v>
       </c>
       <c r="E1783" s="1">
-        <v>4458583167</v>
+        <v>4458568612</v>
       </c>
       <c r="F1783" s="2">
         <v>1</v>
@@ -20121,10 +20127,10 @@
         <v>1845</v>
       </c>
       <c r="D1788" s="1">
-        <v>2976127024</v>
+        <v>2990277606</v>
       </c>
       <c r="E1788" s="1">
-        <v>2976127024</v>
+        <v>2990277606</v>
       </c>
       <c r="F1788" s="2">
         <v>1</v>
@@ -20182,7 +20188,7 @@
         <v>4373850401</v>
       </c>
       <c r="E1793" s="1">
-        <v>5977208132</v>
+        <v>5978571017</v>
       </c>
       <c r="F1793" s="2">
         <v>0.73199999999999998</v>
@@ -20239,10 +20245,10 @@
         <v>1863</v>
       </c>
       <c r="D1796" s="1">
-        <v>7157640927</v>
+        <v>7171791509</v>
       </c>
       <c r="E1796" s="1">
-        <v>7454460601</v>
+        <v>7468611183</v>
       </c>
       <c r="F1796" s="2">
         <v>0.96</v>
@@ -20304,13 +20310,13 @@
         <v>1869</v>
       </c>
       <c r="D1800" s="1">
-        <v>4211274819</v>
+        <v>4225425401</v>
       </c>
       <c r="E1800" s="1">
-        <v>16177210205</v>
+        <v>16191360787</v>
       </c>
       <c r="F1800" s="2">
-        <v>0.26</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="1801" spans="1:6" x14ac:dyDescent="0.25">
@@ -20363,7 +20369,7 @@
         <v>4621886636</v>
       </c>
       <c r="E1804" s="1">
-        <v>37980077732</v>
+        <v>37989304350</v>
       </c>
       <c r="F1804" s="2">
         <v>0.122</v>
@@ -20413,13 +20419,13 @@
         <v>1813</v>
       </c>
       <c r="D1808" s="1">
-        <v>2910645804</v>
+        <v>2924796386</v>
       </c>
       <c r="E1808" s="1">
-        <v>5284394403</v>
+        <v>5292876170</v>
       </c>
       <c r="F1808" s="2">
-        <v>0.55100000000000005</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="1809" spans="1:6" x14ac:dyDescent="0.25">
@@ -20444,7 +20450,7 @@
         <v>6709392984</v>
       </c>
       <c r="E1810" s="1">
-        <v>6994048790</v>
+        <v>6996426036</v>
       </c>
       <c r="F1810" s="2">
         <v>0.95899999999999996</v>
@@ -20464,7 +20470,7 @@
         <v>6709392984</v>
       </c>
       <c r="E1811" s="1">
-        <v>6994048790</v>
+        <v>6996426036</v>
       </c>
       <c r="F1811" s="2">
         <v>0.95899999999999996</v>
@@ -20512,59 +20518,59 @@
     </row>
     <row r="1814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1814" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B1814">
         <v>4</v>
       </c>
       <c r="C1814" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D1814" s="1">
+        <v>6076351847</v>
+      </c>
+      <c r="E1814" s="1">
+        <v>7142736113</v>
+      </c>
+      <c r="F1814" s="2">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1815" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1815">
+        <v>4</v>
+      </c>
+      <c r="C1815" t="s">
         <v>1845</v>
       </c>
-      <c r="D1814" s="1">
+      <c r="D1815" s="1">
         <v>2510020439</v>
       </c>
-      <c r="E1814" s="1">
+      <c r="E1815" s="1">
         <v>2510020439</v>
       </c>
-      <c r="F1814" s="2">
+      <c r="F1815" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="1815" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1815" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D1815" s="1"/>
-      <c r="E1815" s="1"/>
-      <c r="F1815" s="2"/>
     </row>
     <row r="1816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1816" t="s">
-        <v>1853</v>
+        <v>1825</v>
       </c>
       <c r="D1816" s="1"/>
       <c r="E1816" s="1"/>
       <c r="F1816" s="2"/>
     </row>
     <row r="1817" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1817" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B1817">
-        <v>4</v>
-      </c>
       <c r="C1817" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D1817" s="1">
-        <v>6076351847</v>
-      </c>
-      <c r="E1817" s="1">
-        <v>7142736113</v>
-      </c>
-      <c r="F1817" s="2">
-        <v>0.85099999999999998</v>
-      </c>
+        <v>1853</v>
+      </c>
+      <c r="D1817" s="1"/>
+      <c r="E1817" s="1"/>
+      <c r="F1817" s="2"/>
     </row>
     <row r="1818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
@@ -20698,10 +20704,10 @@
         <v>1897</v>
       </c>
       <c r="D1826" s="1">
-        <v>3965618043</v>
+        <v>3965603488</v>
       </c>
       <c r="E1826" s="1">
-        <v>3965618043</v>
+        <v>3965603488</v>
       </c>
       <c r="F1826" s="2">
         <v>1</v>
@@ -20741,7 +20747,7 @@
         <v>3291869166</v>
       </c>
       <c r="E1828" s="1">
-        <v>4334279922</v>
+        <v>4335008711</v>
       </c>
       <c r="F1828" s="2">
         <v>0.75900000000000001</v>
@@ -20947,13 +20953,13 @@
         <v>1843</v>
       </c>
       <c r="D1841" s="1">
-        <v>1590251052</v>
+        <v>1604401634</v>
       </c>
       <c r="E1841" s="1">
-        <v>2147879834</v>
+        <v>2162030416</v>
       </c>
       <c r="F1841" s="2">
-        <v>0.74</v>
+        <v>0.74199999999999999</v>
       </c>
     </row>
     <row r="1842" spans="1:6" x14ac:dyDescent="0.25">
@@ -21035,10 +21041,10 @@
         <v>1394923423</v>
       </c>
       <c r="E1846" s="1">
-        <v>2282279274</v>
+        <v>2289640821</v>
       </c>
       <c r="F1846" s="2">
-        <v>0.61099999999999999</v>
+        <v>0.60899999999999999</v>
       </c>
     </row>
     <row r="1847" spans="1:6" x14ac:dyDescent="0.25">
@@ -21153,10 +21159,10 @@
         <v>1933</v>
       </c>
       <c r="D1854" s="1">
-        <v>1590251052</v>
+        <v>1604401634</v>
       </c>
       <c r="E1854" s="1">
-        <v>11876838218</v>
+        <v>11962195565</v>
       </c>
       <c r="F1854" s="2">
         <v>0.13400000000000001</v>
@@ -21360,10 +21366,10 @@
         <v>2429149530</v>
       </c>
       <c r="E1866" s="1">
-        <v>8388766100</v>
+        <v>8397992718</v>
       </c>
       <c r="F1866" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="1867" spans="1:6" x14ac:dyDescent="0.25">
@@ -21405,13 +21411,13 @@
         <v>1954</v>
       </c>
       <c r="D1869" s="1">
-        <v>2614447317</v>
+        <v>2628597899</v>
       </c>
       <c r="E1869" s="1">
-        <v>13659751742</v>
+        <v>13673902324</v>
       </c>
       <c r="F1869" s="2">
-        <v>0.191</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="1870" spans="1:6" x14ac:dyDescent="0.25">
@@ -21478,13 +21484,13 @@
         <v>1831</v>
       </c>
       <c r="D1874" s="1">
-        <v>2190549933</v>
+        <v>2190535378</v>
       </c>
       <c r="E1874" s="1">
-        <v>2928515490</v>
+        <v>2975061445</v>
       </c>
       <c r="F1874" s="2">
-        <v>0.748</v>
+        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="1875" spans="1:6" x14ac:dyDescent="0.25">
@@ -21497,7 +21503,7 @@
     </row>
     <row r="1876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1876" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B1876">
         <v>2</v>
@@ -21506,10 +21512,10 @@
         <v>1956</v>
       </c>
       <c r="D1876" s="1">
-        <v>448247943</v>
+        <v>462398525</v>
       </c>
       <c r="E1876" s="1">
-        <v>448247943</v>
+        <v>462398525</v>
       </c>
       <c r="F1876" s="2">
         <v>1</v>
@@ -21517,48 +21523,51 @@
     </row>
     <row r="1877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1877" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="B1877">
         <v>2</v>
       </c>
       <c r="C1877" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D1877" s="1">
+        <v>2190535378</v>
+      </c>
+      <c r="E1877" s="1">
+        <v>2190535378</v>
+      </c>
+      <c r="F1877" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1878" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1878">
+        <v>2</v>
+      </c>
+      <c r="C1878" t="s">
         <v>1959</v>
       </c>
-      <c r="D1877" s="1">
+      <c r="D1878" s="1">
         <v>1780674070</v>
       </c>
-      <c r="E1877" s="1">
+      <c r="E1878" s="1">
         <v>3751831765</v>
       </c>
-      <c r="F1877" s="2">
+      <c r="F1878" s="2">
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="1878" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1878" t="s">
+    <row r="1879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1879" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="1879" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1879" t="s">
-        <v>1960</v>
-      </c>
-      <c r="B1879">
-        <v>2</v>
-      </c>
-      <c r="C1879" t="s">
-        <v>1956</v>
-      </c>
-      <c r="D1879" s="1">
-        <v>2190549933</v>
-      </c>
-      <c r="E1879" s="1">
-        <v>2190549933</v>
-      </c>
-      <c r="F1879" s="2">
-        <v>1</v>
-      </c>
+      <c r="D1879" s="1"/>
+      <c r="E1879" s="1"/>
+      <c r="F1879" s="2"/>
     </row>
     <row r="1880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1880" t="s">
@@ -21865,10 +21874,10 @@
         <v>1974</v>
       </c>
       <c r="D1901" s="1">
-        <v>2190549933</v>
+        <v>2190535378</v>
       </c>
       <c r="E1901" s="1">
-        <v>2474837944</v>
+        <v>2474823389</v>
       </c>
       <c r="F1901" s="2">
         <v>0.88500000000000001</v>
@@ -21885,13 +21894,13 @@
         <v>1845</v>
       </c>
       <c r="D1902" s="1">
-        <v>849979702</v>
+        <v>864130284</v>
       </c>
       <c r="E1902" s="1">
-        <v>5523889526</v>
+        <v>5538040108</v>
       </c>
       <c r="F1902" s="2">
-        <v>0.154</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="1903" spans="1:6" x14ac:dyDescent="0.25">
@@ -21913,10 +21922,10 @@
         <v>1977</v>
       </c>
       <c r="D1904" s="1">
-        <v>2190549933</v>
+        <v>2190535378</v>
       </c>
       <c r="E1904" s="1">
-        <v>2780984169</v>
+        <v>2780969614</v>
       </c>
       <c r="F1904" s="2">
         <v>0.78800000000000003</v>
@@ -21984,71 +21993,71 @@
     </row>
     <row r="1908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1908" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="B1908">
         <v>2</v>
       </c>
       <c r="C1908" t="s">
-        <v>1833</v>
+        <v>1977</v>
       </c>
       <c r="D1908" s="1">
-        <v>2624450134</v>
+        <v>1976320353</v>
       </c>
       <c r="E1908" s="1">
-        <v>3572548359</v>
+        <v>3889452076</v>
       </c>
       <c r="F1908" s="2">
-        <v>0.73499999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="1909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1909" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1909">
+        <v>2</v>
+      </c>
       <c r="C1909" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D1909" s="1"/>
-      <c r="E1909" s="1"/>
-      <c r="F1909" s="2"/>
+        <v>1983</v>
+      </c>
+      <c r="D1909" s="1">
+        <v>2190535378</v>
+      </c>
+      <c r="E1909" s="1">
+        <v>3066652909</v>
+      </c>
+      <c r="F1909" s="2">
+        <v>0.71399999999999997</v>
+      </c>
     </row>
     <row r="1910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1910" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="B1910">
         <v>2</v>
       </c>
       <c r="C1910" t="s">
-        <v>1977</v>
+        <v>1833</v>
       </c>
       <c r="D1910" s="1">
-        <v>1976320353</v>
+        <v>2624450134</v>
       </c>
       <c r="E1910" s="1">
-        <v>3889452076</v>
+        <v>3572548359</v>
       </c>
       <c r="F1910" s="2">
-        <v>0.50800000000000001</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="1911" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1911" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B1911">
-        <v>2</v>
-      </c>
       <c r="C1911" t="s">
-        <v>1983</v>
-      </c>
-      <c r="D1911" s="1">
-        <v>2190549933</v>
-      </c>
-      <c r="E1911" s="1">
-        <v>3066667464</v>
-      </c>
-      <c r="F1911" s="2">
-        <v>0.71399999999999997</v>
-      </c>
+        <v>1806</v>
+      </c>
+      <c r="D1911" s="1"/>
+      <c r="E1911" s="1"/>
+      <c r="F1911" s="2"/>
     </row>
     <row r="1912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1912" t="s">
@@ -22080,42 +22089,42 @@
     </row>
     <row r="1914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1914" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1914">
         <v>2</v>
       </c>
       <c r="C1914" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="D1914" s="1">
-        <v>986903306</v>
+        <v>981256974</v>
       </c>
       <c r="E1914" s="1">
-        <v>3814166579</v>
+        <v>3234244607</v>
       </c>
       <c r="F1914" s="2">
-        <v>0.25900000000000001</v>
+        <v>0.30299999999999999</v>
       </c>
     </row>
     <row r="1915" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1915" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1915">
         <v>2</v>
       </c>
       <c r="C1915" t="s">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="D1915" s="1">
-        <v>967106392</v>
+        <v>986903306</v>
       </c>
       <c r="E1915" s="1">
-        <v>3220094025</v>
+        <v>3814166579</v>
       </c>
       <c r="F1915" s="2">
-        <v>0.3</v>
+        <v>0.25900000000000001</v>
       </c>
     </row>
     <row r="1916" spans="1:6" x14ac:dyDescent="0.25">
@@ -22149,10 +22158,10 @@
         <v>1988</v>
       </c>
       <c r="D1917" s="1">
-        <v>2190549933</v>
+        <v>2190535378</v>
       </c>
       <c r="E1917" s="1">
-        <v>4673833638</v>
+        <v>4673819083</v>
       </c>
       <c r="F1917" s="2">
         <v>0.46899999999999997</v>
@@ -22172,7 +22181,7 @@
         <v>2347541965</v>
       </c>
       <c r="E1918" s="1">
-        <v>21078990594</v>
+        <v>21086352562</v>
       </c>
       <c r="F1918" s="2">
         <v>0.111</v>
@@ -22188,82 +22197,82 @@
     </row>
     <row r="1920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1920" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="B1920">
         <v>2</v>
       </c>
       <c r="C1920" t="s">
-        <v>1996</v>
+        <v>1983</v>
       </c>
       <c r="D1920" s="1">
-        <v>1828242760</v>
+        <v>1611410859</v>
       </c>
       <c r="E1920" s="1">
-        <v>1828242760</v>
+        <v>6013880608</v>
       </c>
       <c r="F1920" s="2">
-        <v>1</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="1921" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1921" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="B1921">
         <v>2</v>
       </c>
       <c r="C1921" t="s">
-        <v>1814</v>
+        <v>1988</v>
       </c>
       <c r="D1921" s="1">
-        <v>1447225569</v>
+        <v>1866301475</v>
       </c>
       <c r="E1921" s="1">
-        <v>1648115220</v>
+        <v>11071038873</v>
       </c>
       <c r="F1921" s="2">
-        <v>0.878</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="1922" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1922" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="B1922">
         <v>2</v>
       </c>
       <c r="C1922" t="s">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="D1922" s="1">
-        <v>1866301475</v>
+        <v>1828242760</v>
       </c>
       <c r="E1922" s="1">
-        <v>11071042572</v>
+        <v>1828242760</v>
       </c>
       <c r="F1922" s="2">
-        <v>0.16900000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1923" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1923" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B1923">
         <v>2</v>
       </c>
       <c r="C1923" t="s">
-        <v>1983</v>
+        <v>1814</v>
       </c>
       <c r="D1923" s="1">
-        <v>1611410859</v>
+        <v>1447225569</v>
       </c>
       <c r="E1923" s="1">
-        <v>6013880608</v>
+        <v>1648115220</v>
       </c>
       <c r="F1923" s="2">
-        <v>0.26800000000000002</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="1924" spans="1:6" x14ac:dyDescent="0.25">
@@ -22280,7 +22289,7 @@
         <v>1639970358</v>
       </c>
       <c r="E1924" s="1">
-        <v>5671752725</v>
+        <v>5680514064</v>
       </c>
       <c r="F1924" s="2">
         <v>0.28899999999999998</v>
@@ -22476,10 +22485,10 @@
         <v>2610709251</v>
       </c>
       <c r="E1935" s="1">
-        <v>12758301100</v>
+        <v>12809086383</v>
       </c>
       <c r="F1935" s="2">
-        <v>0.20499999999999999</v>
+        <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="1936" spans="1:6" x14ac:dyDescent="0.25">
@@ -22492,51 +22501,51 @@
     </row>
     <row r="1937" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1937" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B1937">
         <v>2</v>
       </c>
       <c r="C1937" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D1937" s="1">
+        <v>2730492483</v>
+      </c>
+      <c r="E1937" s="1">
+        <v>6981620719</v>
+      </c>
+      <c r="F1937" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1938" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1938">
+        <v>2</v>
+      </c>
+      <c r="C1938" t="s">
         <v>2019</v>
       </c>
-      <c r="D1937" s="1">
+      <c r="D1938" s="1">
         <v>2788319536</v>
       </c>
-      <c r="E1937" s="1">
+      <c r="E1938" s="1">
         <v>7020875805</v>
       </c>
-      <c r="F1937" s="2">
+      <c r="F1938" s="2">
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="1938" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1938" t="s">
+    <row r="1939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1939" t="s">
         <v>2020</v>
       </c>
-      <c r="D1938" s="1"/>
-      <c r="E1938" s="1"/>
-      <c r="F1938" s="2"/>
-    </row>
-    <row r="1939" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1939" t="s">
-        <v>2016</v>
-      </c>
-      <c r="B1939">
-        <v>2</v>
-      </c>
-      <c r="C1939" t="s">
-        <v>2017</v>
-      </c>
-      <c r="D1939" s="1">
-        <v>2730492483</v>
-      </c>
-      <c r="E1939" s="1">
-        <v>6981620719</v>
-      </c>
-      <c r="F1939" s="2">
-        <v>0.39100000000000001</v>
-      </c>
+      <c r="D1939" s="1"/>
+      <c r="E1939" s="1"/>
+      <c r="F1939" s="2"/>
     </row>
     <row r="1940" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1940" t="s">
@@ -22589,13 +22598,13 @@
         <v>1941</v>
       </c>
       <c r="D1942" s="1">
-        <v>818817719</v>
+        <v>832968301</v>
       </c>
       <c r="E1942" s="1">
-        <v>2385811258</v>
+        <v>2398219869</v>
       </c>
       <c r="F1942" s="2">
-        <v>0.34300000000000003</v>
+        <v>0.34699999999999998</v>
       </c>
     </row>
     <row r="1943" spans="1:6" x14ac:dyDescent="0.25">
@@ -22617,13 +22626,13 @@
         <v>2026</v>
       </c>
       <c r="D1944" s="1">
-        <v>1219130338</v>
+        <v>1233280920</v>
       </c>
       <c r="E1944" s="1">
-        <v>11389398583</v>
+        <v>11403549165</v>
       </c>
       <c r="F1944" s="2">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="1945" spans="1:6" x14ac:dyDescent="0.25">
@@ -22720,7 +22729,7 @@
         <v>1866301475</v>
       </c>
       <c r="E1949" s="1">
-        <v>11678445768</v>
+        <v>11678450395</v>
       </c>
       <c r="F1949" s="2">
         <v>0.16</v>
@@ -22765,13 +22774,13 @@
         <v>2036</v>
       </c>
       <c r="D1952" s="1">
-        <v>1577824037</v>
+        <v>1591974619</v>
       </c>
       <c r="E1952" s="1">
-        <v>2457762750</v>
+        <v>2471913332</v>
       </c>
       <c r="F1952" s="2">
-        <v>0.64200000000000002</v>
+        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="1953" spans="1:6" x14ac:dyDescent="0.25">
@@ -22796,51 +22805,51 @@
     </row>
     <row r="1954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1954" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="B1954">
         <v>2</v>
       </c>
       <c r="C1954" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D1954" s="1">
+        <v>2084332508</v>
+      </c>
+      <c r="E1954" s="1">
+        <v>2516274647</v>
+      </c>
+      <c r="F1954" s="2">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1955" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D1955" s="1"/>
+      <c r="E1955" s="1"/>
+      <c r="F1955" s="2"/>
+    </row>
+    <row r="1956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1956" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B1956">
+        <v>2</v>
+      </c>
+      <c r="C1956" t="s">
         <v>2009</v>
       </c>
-      <c r="D1954" s="1">
+      <c r="D1956" s="1">
         <v>1805919268</v>
       </c>
-      <c r="E1954" s="1">
+      <c r="E1956" s="1">
         <v>1913270459</v>
       </c>
-      <c r="F1954" s="2">
+      <c r="F1956" s="2">
         <v>0.94399999999999995</v>
       </c>
-    </row>
-    <row r="1955" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1955" t="s">
-        <v>2038</v>
-      </c>
-      <c r="B1955">
-        <v>2</v>
-      </c>
-      <c r="C1955" t="s">
-        <v>2039</v>
-      </c>
-      <c r="D1955" s="1">
-        <v>2084332508</v>
-      </c>
-      <c r="E1955" s="1">
-        <v>2516274647</v>
-      </c>
-      <c r="F1955" s="2">
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="1956" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1956" t="s">
-        <v>2040</v>
-      </c>
-      <c r="D1956" s="1"/>
-      <c r="E1956" s="1"/>
-      <c r="F1956" s="2"/>
     </row>
     <row r="1957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1957" t="s">
@@ -23104,13 +23113,13 @@
         <v>2062</v>
       </c>
       <c r="D1973" s="1">
-        <v>1580355465</v>
+        <v>1594506047</v>
       </c>
       <c r="E1973" s="1">
-        <v>4649165441</v>
+        <v>4663316023</v>
       </c>
       <c r="F1973" s="2">
-        <v>0.34</v>
+        <v>0.34200000000000003</v>
       </c>
     </row>
     <row r="1974" spans="1:6" x14ac:dyDescent="0.25">
@@ -23192,7 +23201,7 @@
         <v>1843977983</v>
       </c>
       <c r="E1978" s="1">
-        <v>3814634684</v>
+        <v>3814721158</v>
       </c>
       <c r="F1978" s="2">
         <v>0.48299999999999998</v>
@@ -23269,10 +23278,10 @@
         <v>2075</v>
       </c>
       <c r="D1982" s="1">
-        <v>1580355465</v>
+        <v>1594506047</v>
       </c>
       <c r="E1982" s="1">
-        <v>1580355465</v>
+        <v>1594506047</v>
       </c>
       <c r="F1982" s="2">
         <v>1</v>
@@ -23385,52 +23394,52 @@
     </row>
     <row r="2006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2006" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="2007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2007" t="s">
-        <v>2121</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="2008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2008" t="s">
-        <v>2091</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="2009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2009" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="2010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2010" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="2011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2011" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="2012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2012" t="s">
-        <v>2090</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="2013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2013" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="2014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2014" t="s">
-        <v>2123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2015" t="s">
-        <v>2122</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="2017" spans="1:1" x14ac:dyDescent="0.25">
@@ -23440,52 +23449,52 @@
     </row>
     <row r="2018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2018" t="s">
-        <v>514</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="2019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2019" t="s">
-        <v>2092</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2020" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="2021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2021" t="s">
-        <v>2116</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="2022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2022" t="s">
-        <v>535</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="2023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2023" t="s">
-        <v>2130</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="2024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2024" t="s">
-        <v>2093</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="2025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2025" t="s">
-        <v>2131</v>
+      <c r="A2025">
+        <v>65</v>
       </c>
     </row>
     <row r="2026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2026">
-        <v>65</v>
+      <c r="A2026" t="s">
+        <v>2129</v>
       </c>
     </row>
     <row r="2027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2027" t="s">
-        <v>2094</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2029" spans="1:1" x14ac:dyDescent="0.25">
@@ -23495,32 +23504,32 @@
     </row>
     <row r="2030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2030" t="s">
-        <v>2095</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="2031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2031" t="s">
-        <v>1567</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="2032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2032" t="s">
-        <v>2132</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="2033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2033" t="s">
-        <v>2097</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2034" t="s">
-        <v>2125</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="2035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2035" t="s">
-        <v>1519</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="2036" spans="1:1" x14ac:dyDescent="0.25">
@@ -23530,37 +23539,37 @@
     </row>
     <row r="2037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2037" t="s">
-        <v>2098</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="2038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2038" t="s">
-        <v>2096</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="2039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2039" t="s">
-        <v>1544</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="2045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2045" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="2046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2046" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="2047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2047" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="2049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2049" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/The_Numbers_Data.xlsx
+++ b/Resources/The_Numbers_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin McConchie\Git\Marvel Box Office\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Marvel Box Office\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D10F98-A74C-40EF-ACA0-90D90C3A44B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3B2385-9F21-4B6A-A30B-5150B7D18603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8E405407-566B-4AE3-8662-C8F5DD645EBE}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="14970" xr2:uid="{8E405407-566B-4AE3-8662-C8F5DD645EBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="2200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="2199">
   <si>
     <t>The Numbers - Where Data and Movies Meet</t>
   </si>
@@ -6503,9 +6503,6 @@
     <t>Indiana Jones and the Dial of Destiny</t>
   </si>
   <si>
-    <t>Ruby Gillman, Teenage Kraken</t>
-  </si>
-  <si>
     <t>Nov 12, 2019</t>
   </si>
   <si>
@@ -6548,9 +6545,6 @@
     <t>Spider-Man: Across the Spider-Verse</t>
   </si>
   <si>
-    <t>Tom Hanks</t>
-  </si>
-  <si>
     <t>May 7, 2027</t>
   </si>
   <si>
@@ -6578,9 +6572,6 @@
     <t>Sound of Freedom</t>
   </si>
   <si>
-    <t>Haunted Mansion</t>
-  </si>
-  <si>
     <t>Harrison Ford</t>
   </si>
   <si>
@@ -6611,15 +6602,9 @@
     <t>Teenage Mutant Ninja Turtles: Mutant Mayhem</t>
   </si>
   <si>
-    <t>Abducting Abigail</t>
-  </si>
-  <si>
     <t>Transformers One</t>
   </si>
   <si>
-    <t>Talk To Me</t>
-  </si>
-  <si>
     <t>Elemental</t>
   </si>
   <si>
@@ -6629,13 +6614,25 @@
     <t>James Caviezel</t>
   </si>
   <si>
-    <t>Margot Robbie</t>
-  </si>
-  <si>
     <t>Christopher Nolan</t>
   </si>
   <si>
-    <t>Martin Scorsese</t>
+    <t>Wonka</t>
+  </si>
+  <si>
+    <t>Blue Beetle</t>
+  </si>
+  <si>
+    <t>Napoleon</t>
+  </si>
+  <si>
+    <t>The Shift</t>
+  </si>
+  <si>
+    <t>Wes Anderson</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio</t>
   </si>
 </sst>
 </file>
@@ -6998,8 +6995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC9B5A6-5AE5-4E95-B703-8C901B43F860}">
   <dimension ref="A1:F2093"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1108" workbookViewId="0">
-      <selection activeCell="B1120" sqref="B1120"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7520,7 +7517,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="B103" t="s">
         <v>95</v>
@@ -7544,7 +7541,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="B106" t="s">
         <v>99</v>
@@ -7584,7 +7581,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="B111" t="s">
         <v>103</v>
@@ -7595,7 +7592,7 @@
         <v>102</v>
       </c>
       <c r="B112" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -7620,10 +7617,10 @@
         <v>118414021</v>
       </c>
       <c r="E114" s="1">
-        <v>356577614</v>
+        <v>357929014</v>
       </c>
       <c r="F114" s="1">
-        <v>838725717</v>
+        <v>839574667</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -8265,10 +8262,10 @@
         <v>135480056</v>
       </c>
       <c r="E148" s="1">
-        <v>366020335</v>
+        <v>366062567</v>
       </c>
       <c r="F148" s="1">
-        <v>923440850</v>
+        <v>923467380</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -8282,10 +8279,10 @@
         <v>6428500000</v>
       </c>
       <c r="E149" s="1">
-        <v>11712650734</v>
+        <v>11714002134</v>
       </c>
       <c r="F149" s="1">
-        <v>29550107199</v>
+        <v>29550956149</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -8325,7 +8322,7 @@
         <v>171</v>
       </c>
       <c r="C155" s="1">
-        <v>198490294</v>
+        <v>198492034</v>
       </c>
       <c r="D155" t="s">
         <v>180</v>
@@ -8339,7 +8336,7 @@
         <v>169</v>
       </c>
       <c r="C156" s="1">
-        <v>80224082</v>
+        <v>80226978</v>
       </c>
       <c r="D156" t="s">
         <v>182</v>
@@ -8361,7 +8358,7 @@
         <v>167</v>
       </c>
       <c r="C158" s="1">
-        <v>186452064</v>
+        <v>186453000</v>
       </c>
       <c r="D158" t="s">
         <v>186</v>
@@ -8386,7 +8383,7 @@
         <v>191</v>
       </c>
       <c r="C160" s="1">
-        <v>2348620</v>
+        <v>2349028</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -8422,7 +8419,7 @@
         <v>195</v>
       </c>
       <c r="C163" s="1">
-        <v>152072485</v>
+        <v>152073607</v>
       </c>
       <c r="D163" t="s">
         <v>193</v>
@@ -8455,7 +8452,7 @@
         <v>161</v>
       </c>
       <c r="C166" s="1">
-        <v>251947365</v>
+        <v>251949552</v>
       </c>
       <c r="D166" t="s">
         <v>200</v>
@@ -8499,7 +8496,7 @@
         <v>159</v>
       </c>
       <c r="C170" s="1">
-        <v>87049083</v>
+        <v>87050043</v>
       </c>
       <c r="D170" t="s">
         <v>180</v>
@@ -8529,7 +8526,7 @@
         <v>157</v>
       </c>
       <c r="C173" s="1">
-        <v>93961981</v>
+        <v>93962037</v>
       </c>
       <c r="D173" t="s">
         <v>182</v>
@@ -8543,7 +8540,7 @@
         <v>213</v>
       </c>
       <c r="C174" s="1">
-        <v>79596030</v>
+        <v>79597814</v>
       </c>
       <c r="D174" t="s">
         <v>182</v>
@@ -8568,7 +8565,7 @@
         <v>153</v>
       </c>
       <c r="C176" s="1">
-        <v>151447929</v>
+        <v>151453973</v>
       </c>
       <c r="D176" t="s">
         <v>193</v>
@@ -8621,7 +8618,7 @@
         <v>149</v>
       </c>
       <c r="C180" s="1">
-        <v>70021287</v>
+        <v>70023975</v>
       </c>
       <c r="D180" t="s">
         <v>193</v>
@@ -8682,7 +8679,7 @@
         <v>147</v>
       </c>
       <c r="C185" s="1">
-        <v>85855044</v>
+        <v>85855428</v>
       </c>
       <c r="D185" t="s">
         <v>193</v>
@@ -8696,7 +8693,7 @@
         <v>145</v>
       </c>
       <c r="C186" s="1">
-        <v>59743615</v>
+        <v>59744479</v>
       </c>
       <c r="D186" t="s">
         <v>186</v>
@@ -8729,7 +8726,7 @@
         <v>143</v>
       </c>
       <c r="C189" s="1">
-        <v>80337515</v>
+        <v>80338901</v>
       </c>
       <c r="D189" t="s">
         <v>182</v>
@@ -8743,7 +8740,7 @@
         <v>141</v>
       </c>
       <c r="C190" s="1">
-        <v>72018322</v>
+        <v>72019564</v>
       </c>
       <c r="D190" t="s">
         <v>193</v>
@@ -8792,7 +8789,7 @@
         <v>139</v>
       </c>
       <c r="C195" s="1">
-        <v>74369992</v>
+        <v>74372706</v>
       </c>
       <c r="D195" t="s">
         <v>193</v>
@@ -8806,7 +8803,7 @@
         <v>137</v>
       </c>
       <c r="C196" s="1">
-        <v>104323042</v>
+        <v>104326914</v>
       </c>
       <c r="D196" t="s">
         <v>193</v>
@@ -8820,7 +8817,7 @@
         <v>135</v>
       </c>
       <c r="C197" s="1">
-        <v>104012774</v>
+        <v>104016038</v>
       </c>
       <c r="D197" t="s">
         <v>193</v>
@@ -8845,7 +8842,7 @@
         <v>133</v>
       </c>
       <c r="C199" s="1">
-        <v>50788003</v>
+        <v>50789634</v>
       </c>
       <c r="D199" t="s">
         <v>193</v>
@@ -8870,7 +8867,7 @@
         <v>131</v>
       </c>
       <c r="C201" s="1">
-        <v>67433070</v>
+        <v>67433670</v>
       </c>
       <c r="D201" t="s">
         <v>255</v>
@@ -8895,7 +8892,7 @@
         <v>129</v>
       </c>
       <c r="C203" s="1">
-        <v>107843703</v>
+        <v>107844492</v>
       </c>
       <c r="D203" t="s">
         <v>182</v>
@@ -8909,7 +8906,7 @@
         <v>259</v>
       </c>
       <c r="C204" s="1">
-        <v>71404290</v>
+        <v>71406267</v>
       </c>
       <c r="D204" t="s">
         <v>182</v>
@@ -8928,10 +8925,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B206" t="s">
         <v>2156</v>
-      </c>
-      <c r="B206" t="s">
-        <v>2157</v>
       </c>
       <c r="D206" t="s">
         <v>189</v>
@@ -8939,10 +8936,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B207" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D207" t="s">
         <v>189</v>
@@ -8969,10 +8966,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B210" t="s">
         <v>2159</v>
-      </c>
-      <c r="B210" t="s">
-        <v>2160</v>
       </c>
       <c r="D210" t="s">
         <v>189</v>
@@ -8980,10 +8977,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B211" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D211" t="s">
         <v>189</v>
@@ -9377,7 +9374,7 @@
         <v>125</v>
       </c>
       <c r="C250" s="1">
-        <v>23197050</v>
+        <v>23199777</v>
       </c>
       <c r="D250" t="s">
         <v>193</v>
@@ -9553,7 +9550,7 @@
         <v>352</v>
       </c>
       <c r="C268" s="1">
-        <v>14427755</v>
+        <v>14429200</v>
       </c>
       <c r="D268" t="s">
         <v>182</v>
@@ -9686,7 +9683,7 @@
         <v>121</v>
       </c>
       <c r="C280" s="1">
-        <v>5958425</v>
+        <v>5961596</v>
       </c>
       <c r="D280" t="s">
         <v>193</v>
@@ -9722,7 +9719,7 @@
         <v>119</v>
       </c>
       <c r="C283" s="1">
-        <v>44433703</v>
+        <v>44530726</v>
       </c>
       <c r="D283" t="s">
         <v>182</v>
@@ -9905,7 +9902,7 @@
         <v>405</v>
       </c>
       <c r="C301" s="1">
-        <v>15521181</v>
+        <v>15585121</v>
       </c>
       <c r="D301" t="s">
         <v>255</v>
@@ -10173,7 +10170,7 @@
         <v>115</v>
       </c>
       <c r="C327" s="1">
-        <v>15478811</v>
+        <v>15642972</v>
       </c>
       <c r="D327" t="s">
         <v>255</v>
@@ -10506,7 +10503,7 @@
         <v>2132</v>
       </c>
       <c r="B360" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="D360" t="s">
         <v>189</v>
@@ -10528,7 +10525,7 @@
         <v>2133</v>
       </c>
       <c r="B362" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -10536,7 +10533,7 @@
         <v>2134</v>
       </c>
       <c r="B363" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -10552,7 +10549,7 @@
         <v>2136</v>
       </c>
       <c r="B365" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -10560,12 +10557,12 @@
         <v>2137</v>
       </c>
       <c r="B366" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="B367" t="s">
         <v>107</v>
@@ -10882,7 +10879,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="B405" t="s">
         <v>95</v>
@@ -10893,7 +10890,7 @@
         <v>173</v>
       </c>
       <c r="C407" s="1">
-        <v>2598540993</v>
+        <v>2598913004</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -10918,12 +10915,12 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -10933,17 +10930,17 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
@@ -10953,7 +10950,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -17227,7 +17224,7 @@
         <v>10620717694</v>
       </c>
       <c r="E1627" s="1">
-        <v>15418422403</v>
+        <v>15424927561</v>
       </c>
       <c r="F1627" s="2">
         <v>0.68899999999999995</v>
@@ -17347,7 +17344,7 @@
         <v>9232190692</v>
       </c>
       <c r="E1633" s="1">
-        <v>15090495701</v>
+        <v>15090526782</v>
       </c>
       <c r="F1633" s="2">
         <v>0.61199999999999999</v>
@@ -17404,10 +17401,10 @@
         <v>1527</v>
       </c>
       <c r="D1636" s="1">
-        <v>8082715665</v>
+        <v>8083564615</v>
       </c>
       <c r="E1636" s="1">
-        <v>15665564890</v>
+        <v>15662170894</v>
       </c>
       <c r="F1636" s="2">
         <v>0.51600000000000001</v>
@@ -17444,10 +17441,10 @@
         <v>1531</v>
       </c>
       <c r="D1638" s="1">
-        <v>8082715665</v>
+        <v>8083564615</v>
       </c>
       <c r="E1638" s="1">
-        <v>9894581997</v>
+        <v>9895430947</v>
       </c>
       <c r="F1638" s="2">
         <v>0.81699999999999995</v>
@@ -17524,10 +17521,10 @@
         <v>1538</v>
       </c>
       <c r="D1642" s="1">
-        <v>8082715665</v>
+        <v>8083564615</v>
       </c>
       <c r="E1642" s="1">
-        <v>10368665960</v>
+        <v>10369514910</v>
       </c>
       <c r="F1642" s="2">
         <v>0.78</v>
@@ -17544,10 +17541,10 @@
         <v>1540</v>
       </c>
       <c r="D1643" s="1">
-        <v>8082715665</v>
+        <v>8083564615</v>
       </c>
       <c r="E1643" s="1">
-        <v>13017216880</v>
+        <v>13018065830</v>
       </c>
       <c r="F1643" s="2">
         <v>0.621</v>
@@ -17604,10 +17601,10 @@
         <v>1544</v>
       </c>
       <c r="D1646" s="1">
-        <v>5287983910</v>
+        <v>5288832860</v>
       </c>
       <c r="E1646" s="1">
-        <v>14137822721</v>
+        <v>14140716610</v>
       </c>
       <c r="F1646" s="2">
         <v>0.374</v>
@@ -17621,7 +17618,7 @@
         <v>5</v>
       </c>
       <c r="C1647" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D1647" s="1">
         <v>4765274405</v>
@@ -17664,10 +17661,10 @@
         <v>1550</v>
       </c>
       <c r="D1649" s="1">
-        <v>7321787584</v>
+        <v>7322636534</v>
       </c>
       <c r="E1649" s="1">
-        <v>15533536385</v>
+        <v>15534353863</v>
       </c>
       <c r="F1649" s="2">
         <v>0.47099999999999997</v>
@@ -17724,13 +17721,13 @@
         <v>1556</v>
       </c>
       <c r="D1652" s="1">
-        <v>7311833270</v>
+        <v>7312682220</v>
       </c>
       <c r="E1652" s="1">
-        <v>7569060631</v>
+        <v>7585426241</v>
       </c>
       <c r="F1652" s="2">
-        <v>0.96599999999999997</v>
+        <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="1653" spans="1:6" x14ac:dyDescent="0.25">
@@ -17767,10 +17764,10 @@
         <v>5793878848</v>
       </c>
       <c r="E1654" s="1">
-        <v>6648834181</v>
+        <v>6664350841</v>
       </c>
       <c r="F1654" s="2">
-        <v>0.871</v>
+        <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="1655" spans="1:6" x14ac:dyDescent="0.25">
@@ -17847,7 +17844,7 @@
         <v>4356532483</v>
       </c>
       <c r="E1658" s="1">
-        <v>6360247379</v>
+        <v>6362292318</v>
       </c>
       <c r="F1658" s="2">
         <v>0.68500000000000005</v>
@@ -18027,7 +18024,7 @@
         <v>1944411912</v>
       </c>
       <c r="E1667" s="1">
-        <v>6357294530</v>
+        <v>6357297106</v>
       </c>
       <c r="F1667" s="2">
         <v>0.30599999999999999</v>
@@ -18067,10 +18064,10 @@
         <v>1605638412</v>
       </c>
       <c r="E1669" s="1">
-        <v>3608562024</v>
+        <v>3629812589</v>
       </c>
       <c r="F1669" s="2">
-        <v>0.44500000000000001</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="1670" spans="1:6" x14ac:dyDescent="0.25">
@@ -18147,10 +18144,10 @@
         <v>3920427058</v>
       </c>
       <c r="E1673" s="1">
-        <v>4472655020</v>
+        <v>4479140193</v>
       </c>
       <c r="F1673" s="2">
-        <v>0.877</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1674" spans="1:6" x14ac:dyDescent="0.25">
@@ -18164,10 +18161,10 @@
         <v>2099</v>
       </c>
       <c r="D1674" s="1">
-        <v>2478696075</v>
+        <v>2479545025</v>
       </c>
       <c r="E1674" s="1">
-        <v>2657604300</v>
+        <v>2658453250</v>
       </c>
       <c r="F1674" s="2">
         <v>0.93300000000000005</v>
@@ -18204,10 +18201,10 @@
         <v>1648</v>
       </c>
       <c r="D1676" s="1">
-        <v>1980728826</v>
+        <v>1981577776</v>
       </c>
       <c r="E1676" s="1">
-        <v>7484281599</v>
+        <v>7485130549</v>
       </c>
       <c r="F1676" s="2">
         <v>0.26500000000000001</v>
@@ -18315,42 +18312,42 @@
     </row>
     <row r="1682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="B1682">
         <v>3</v>
       </c>
       <c r="C1682" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="D1682" s="1">
-        <v>4985211621</v>
+        <v>3888660889</v>
       </c>
       <c r="E1682" s="1">
-        <v>8295166038</v>
+        <v>6108808859</v>
       </c>
       <c r="F1682" s="2">
-        <v>0.60099999999999998</v>
+        <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="1683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B1683">
         <v>3</v>
       </c>
       <c r="C1683" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D1683" s="1">
-        <v>3888660889</v>
+        <v>4985211621</v>
       </c>
       <c r="E1683" s="1">
-        <v>6108808859</v>
+        <v>8295166038</v>
       </c>
       <c r="F1683" s="2">
-        <v>0.63700000000000001</v>
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="1684" spans="1:6" x14ac:dyDescent="0.25">
@@ -18364,10 +18361,10 @@
         <v>2100</v>
       </c>
       <c r="D1684" s="1">
-        <v>2478696075</v>
+        <v>2479545025</v>
       </c>
       <c r="E1684" s="1">
-        <v>2690770394</v>
+        <v>2691619344</v>
       </c>
       <c r="F1684" s="2">
         <v>0.92100000000000004</v>
@@ -18384,10 +18381,10 @@
         <v>1638</v>
       </c>
       <c r="D1685" s="1">
-        <v>2478696075</v>
+        <v>2479545025</v>
       </c>
       <c r="E1685" s="1">
-        <v>5601752636</v>
+        <v>5604646525</v>
       </c>
       <c r="F1685" s="2">
         <v>0.442</v>
@@ -18407,7 +18404,7 @@
         <v>5994991095</v>
       </c>
       <c r="E1686" s="1">
-        <v>6280396096</v>
+        <v>6280398329</v>
       </c>
       <c r="F1686" s="2">
         <v>0.95499999999999996</v>
@@ -18589,42 +18586,42 @@
     </row>
     <row r="1696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1696" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B1696">
         <v>2</v>
       </c>
       <c r="C1696" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="D1696" s="1">
-        <v>1900458489</v>
+        <v>1628568160</v>
       </c>
       <c r="E1696" s="1">
-        <v>9188538295</v>
+        <v>3713765962</v>
       </c>
       <c r="F1696" s="2">
-        <v>0.20699999999999999</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="1697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B1697">
         <v>2</v>
       </c>
       <c r="C1697" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D1697" s="1">
-        <v>1628568160</v>
+        <v>1900458489</v>
       </c>
       <c r="E1697" s="1">
-        <v>3713765962</v>
+        <v>9188525559</v>
       </c>
       <c r="F1697" s="2">
-        <v>0.439</v>
+        <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="1698" spans="1:6" x14ac:dyDescent="0.25">
@@ -18709,42 +18706,42 @@
     </row>
     <row r="1702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="B1702">
         <v>2</v>
       </c>
       <c r="C1702" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="D1702" s="1">
-        <v>1142003109</v>
+        <v>1206327936</v>
       </c>
       <c r="E1702" s="1">
-        <v>1718152307</v>
+        <v>2077356945</v>
       </c>
       <c r="F1702" s="2">
-        <v>0.66500000000000004</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="1703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B1703">
         <v>2</v>
       </c>
       <c r="C1703" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D1703" s="1">
-        <v>1206327936</v>
+        <v>1142003109</v>
       </c>
       <c r="E1703" s="1">
-        <v>2077093253</v>
+        <v>1718152307</v>
       </c>
       <c r="F1703" s="2">
-        <v>0.58099999999999996</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="1704" spans="1:6" x14ac:dyDescent="0.25">
@@ -18761,10 +18758,10 @@
         <v>1084971665</v>
       </c>
       <c r="E1704" s="1">
-        <v>8100936238</v>
+        <v>8194419463</v>
       </c>
       <c r="F1704" s="2">
-        <v>0.13400000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="1705" spans="1:6" x14ac:dyDescent="0.25">
@@ -18781,7 +18778,7 @@
         <v>1647616906</v>
       </c>
       <c r="E1705" s="1">
-        <v>5932063953</v>
+        <v>5932065604</v>
       </c>
       <c r="F1705" s="2">
         <v>0.27800000000000002</v>
@@ -18818,10 +18815,10 @@
         <v>1656</v>
       </c>
       <c r="D1707" s="1">
-        <v>1707813680</v>
+        <v>1708662630</v>
       </c>
       <c r="E1707" s="1">
-        <v>3557347905</v>
+        <v>3558196855</v>
       </c>
       <c r="F1707" s="2">
         <v>0.48</v>
@@ -18881,7 +18878,7 @@
         <v>1495085294</v>
       </c>
       <c r="E1710" s="1">
-        <v>3259522264</v>
+        <v>3259509528</v>
       </c>
       <c r="F1710" s="2">
         <v>0.45900000000000002</v>
@@ -18958,10 +18955,10 @@
         <v>2101</v>
       </c>
       <c r="D1714" s="1">
-        <v>1707813680</v>
+        <v>1708662630</v>
       </c>
       <c r="E1714" s="1">
-        <v>7329242017</v>
+        <v>7330090719</v>
       </c>
       <c r="F1714" s="2">
         <v>0.23300000000000001</v>
@@ -18969,62 +18966,62 @@
     </row>
     <row r="1715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1715" t="s">
-        <v>1674</v>
+        <v>2167</v>
       </c>
       <c r="B1715">
         <v>2</v>
       </c>
       <c r="C1715" t="s">
-        <v>1675</v>
+        <v>1587</v>
       </c>
       <c r="D1715" s="1">
-        <v>1142003109</v>
+        <v>1611410859</v>
       </c>
       <c r="E1715" s="1">
-        <v>1258744572</v>
+        <v>5907354803</v>
       </c>
       <c r="F1715" s="2">
-        <v>0.90700000000000003</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="1716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1716" t="s">
-        <v>2168</v>
+        <v>1676</v>
       </c>
       <c r="B1716">
         <v>2</v>
       </c>
       <c r="C1716" t="s">
-        <v>1587</v>
+        <v>1677</v>
       </c>
       <c r="D1716" s="1">
-        <v>1611410859</v>
+        <v>2190479866</v>
       </c>
       <c r="E1716" s="1">
-        <v>5907354803</v>
+        <v>3168557448</v>
       </c>
       <c r="F1716" s="2">
-        <v>0.27300000000000002</v>
+        <v>0.69099999999999995</v>
       </c>
     </row>
     <row r="1717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1717" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="B1717">
         <v>2</v>
       </c>
       <c r="C1717" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="D1717" s="1">
-        <v>2190479866</v>
+        <v>1142003109</v>
       </c>
       <c r="E1717" s="1">
-        <v>3168557448</v>
+        <v>1258744572</v>
       </c>
       <c r="F1717" s="2">
-        <v>0.69099999999999995</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="1718" spans="1:6" x14ac:dyDescent="0.25">
@@ -19081,7 +19078,7 @@
         <v>1719570741</v>
       </c>
       <c r="E1720" s="1">
-        <v>8493803995</v>
+        <v>8500309153</v>
       </c>
       <c r="F1720" s="2">
         <v>0.20200000000000001</v>
@@ -19178,10 +19175,10 @@
         <v>2103</v>
       </c>
       <c r="D1725" s="1">
-        <v>1707813680</v>
+        <v>1708662630</v>
       </c>
       <c r="E1725" s="1">
-        <v>2064276112</v>
+        <v>2065125062</v>
       </c>
       <c r="F1725" s="2">
         <v>0.82699999999999996</v>
@@ -19261,10 +19258,10 @@
         <v>1301312597</v>
       </c>
       <c r="E1729" s="1">
-        <v>5252815143</v>
+        <v>5273258971</v>
       </c>
       <c r="F1729" s="2">
-        <v>0.248</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="1730" spans="1:6" x14ac:dyDescent="0.25">
@@ -19301,7 +19298,7 @@
         <v>3042155767</v>
       </c>
       <c r="E1731" s="1">
-        <v>11466536609</v>
+        <v>11466698424</v>
       </c>
       <c r="F1731" s="2">
         <v>0.26500000000000001</v>
@@ -19321,7 +19318,7 @@
         <v>3471074929</v>
       </c>
       <c r="E1732" s="1">
-        <v>6522818219</v>
+        <v>6529410688</v>
       </c>
       <c r="F1732" s="2">
         <v>0.53200000000000003</v>
@@ -19329,42 +19326,42 @@
     </row>
     <row r="1733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1733" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B1733">
         <v>2</v>
       </c>
       <c r="C1733" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D1733" s="1">
-        <v>2926631045</v>
+        <v>1866301475</v>
       </c>
       <c r="E1733" s="1">
-        <v>3064898129</v>
+        <v>1866301475</v>
       </c>
       <c r="F1733" s="2">
-        <v>0.95499999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1734" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="B1734">
         <v>2</v>
       </c>
       <c r="C1734" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="D1734" s="1">
-        <v>1866301475</v>
+        <v>2926631045</v>
       </c>
       <c r="E1734" s="1">
-        <v>1866301475</v>
+        <v>3064898129</v>
       </c>
       <c r="F1734" s="2">
-        <v>1</v>
+        <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="1735" spans="1:6" x14ac:dyDescent="0.25">
@@ -19389,82 +19386,82 @@
     </row>
     <row r="1736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1736" t="s">
-        <v>2106</v>
+        <v>1714</v>
       </c>
       <c r="B1736">
         <v>2</v>
       </c>
       <c r="C1736" t="s">
-        <v>2107</v>
+        <v>1715</v>
       </c>
       <c r="D1736" s="1">
-        <v>1707813680</v>
+        <v>1233260338</v>
       </c>
       <c r="E1736" s="1">
-        <v>2185615480</v>
+        <v>1827824659</v>
       </c>
       <c r="F1736" s="2">
-        <v>0.78100000000000003</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="1737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1737" t="s">
-        <v>1714</v>
+        <v>2104</v>
       </c>
       <c r="B1737">
         <v>2</v>
       </c>
       <c r="C1737" t="s">
-        <v>1715</v>
+        <v>2105</v>
       </c>
       <c r="D1737" s="1">
-        <v>1233260338</v>
+        <v>1610457062</v>
       </c>
       <c r="E1737" s="1">
-        <v>1827824659</v>
+        <v>1789347741</v>
       </c>
       <c r="F1737" s="2">
-        <v>0.67500000000000004</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="1738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1738" t="s">
-        <v>2104</v>
+        <v>1712</v>
       </c>
       <c r="B1738">
         <v>2</v>
       </c>
       <c r="C1738" t="s">
-        <v>2105</v>
+        <v>1713</v>
       </c>
       <c r="D1738" s="1">
-        <v>1609608112</v>
+        <v>2285982606</v>
       </c>
       <c r="E1738" s="1">
-        <v>1788498791</v>
+        <v>2290311456</v>
       </c>
       <c r="F1738" s="2">
-        <v>0.9</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="1739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1739" t="s">
-        <v>1712</v>
+        <v>2106</v>
       </c>
       <c r="B1739">
         <v>2</v>
       </c>
       <c r="C1739" t="s">
-        <v>1713</v>
+        <v>2107</v>
       </c>
       <c r="D1739" s="1">
-        <v>2285982606</v>
+        <v>1708662630</v>
       </c>
       <c r="E1739" s="1">
-        <v>2290311456</v>
+        <v>2186464430</v>
       </c>
       <c r="F1739" s="2">
-        <v>0.998</v>
+        <v>0.78100000000000003</v>
       </c>
     </row>
     <row r="1740" spans="1:6" x14ac:dyDescent="0.25">
@@ -19598,10 +19595,10 @@
         <v>2109</v>
       </c>
       <c r="D1746" s="1">
-        <v>1609608112</v>
+        <v>1610457062</v>
       </c>
       <c r="E1746" s="1">
-        <v>3741642320</v>
+        <v>3742491270</v>
       </c>
       <c r="F1746" s="2">
         <v>0.43</v>
@@ -19658,13 +19655,13 @@
         <v>2111</v>
       </c>
       <c r="D1749" s="1">
-        <v>1609608112</v>
+        <v>1610457062</v>
       </c>
       <c r="E1749" s="1">
-        <v>4681342742</v>
+        <v>4697776937</v>
       </c>
       <c r="F1749" s="2">
-        <v>0.34399999999999997</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="1750" spans="1:6" x14ac:dyDescent="0.25">
@@ -19698,10 +19695,10 @@
         <v>2113</v>
       </c>
       <c r="D1751" s="1">
-        <v>1609608112</v>
+        <v>1610457062</v>
       </c>
       <c r="E1751" s="1">
-        <v>2468361134</v>
+        <v>2469210084</v>
       </c>
       <c r="F1751" s="2">
         <v>0.65200000000000002</v>
@@ -19771,10 +19768,10 @@
         <v>2081</v>
       </c>
       <c r="D1756" s="1">
-        <v>29550107199</v>
+        <v>29550956149</v>
       </c>
       <c r="E1756" s="1">
-        <v>34463333940</v>
+        <v>34464182890</v>
       </c>
       <c r="F1756" s="2">
         <v>0.85699999999999998</v>
@@ -19791,10 +19788,10 @@
         <v>2114</v>
       </c>
       <c r="D1757" s="1">
-        <v>29284533340</v>
+        <v>29285382290</v>
       </c>
       <c r="E1757" s="1">
-        <v>30062771620</v>
+        <v>30063620570</v>
       </c>
       <c r="F1757" s="2">
         <v>0.97399999999999998</v>
@@ -19811,10 +19808,10 @@
         <v>2115</v>
       </c>
       <c r="D1758" s="1">
-        <v>29284533340</v>
+        <v>29285382290</v>
       </c>
       <c r="E1758" s="1">
-        <v>29285405506</v>
+        <v>29286254456</v>
       </c>
       <c r="F1758" s="2">
         <v>1</v>
@@ -19875,10 +19872,10 @@
         <v>2116</v>
       </c>
       <c r="D1763" s="1">
-        <v>22459539074</v>
+        <v>22460388024</v>
       </c>
       <c r="E1763" s="1">
-        <v>26077623036</v>
+        <v>26078471986</v>
       </c>
       <c r="F1763" s="2">
         <v>0.86099999999999999</v>
@@ -19895,10 +19892,10 @@
         <v>2117</v>
       </c>
       <c r="D1764" s="1">
-        <v>23552149508</v>
+        <v>23552998458</v>
       </c>
       <c r="E1764" s="1">
-        <v>30584527889</v>
+        <v>30585376839</v>
       </c>
       <c r="F1764" s="2">
         <v>0.77</v>
@@ -20046,59 +20043,59 @@
     </row>
     <row r="1775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1775" t="s">
-        <v>1777</v>
+        <v>1759</v>
       </c>
       <c r="B1775">
         <v>9</v>
       </c>
       <c r="C1775" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D1775" s="1">
+        <v>13115820467</v>
+      </c>
+      <c r="E1775" s="1">
+        <v>13567717504</v>
+      </c>
+      <c r="F1775" s="2">
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1776" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1776">
+        <v>9</v>
+      </c>
+      <c r="C1776" t="s">
         <v>2118</v>
       </c>
-      <c r="D1775" s="1">
-        <v>8505551101</v>
-      </c>
-      <c r="E1775" s="1">
-        <v>9659596491</v>
-      </c>
-      <c r="F1775" s="2">
+      <c r="D1776" s="1">
+        <v>8506400051</v>
+      </c>
+      <c r="E1776" s="1">
+        <v>9660445441</v>
+      </c>
+      <c r="F1776" s="2">
         <v>0.88100000000000001</v>
       </c>
-    </row>
-    <row r="1776" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1776" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D1776" s="1"/>
-      <c r="E1776" s="1"/>
-      <c r="F1776" s="2"/>
     </row>
     <row r="1777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1777" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D1777" s="1"/>
       <c r="E1777" s="1"/>
       <c r="F1777" s="2"/>
     </row>
     <row r="1778" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1778" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B1778">
-        <v>9</v>
-      </c>
       <c r="C1778" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D1778" s="1">
-        <v>13115820467</v>
-      </c>
-      <c r="E1778" s="1">
-        <v>13567717504</v>
-      </c>
-      <c r="F1778" s="2">
-        <v>0.96699999999999997</v>
-      </c>
+        <v>1779</v>
+      </c>
+      <c r="D1778" s="1"/>
+      <c r="E1778" s="1"/>
+      <c r="F1778" s="2"/>
     </row>
     <row r="1779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1779" t="s">
@@ -20114,7 +20111,7 @@
         <v>9880117467</v>
       </c>
       <c r="E1779" s="1">
-        <v>22594679595</v>
+        <v>22590436649</v>
       </c>
       <c r="F1779" s="2">
         <v>0.437</v>
@@ -20150,10 +20147,10 @@
         <v>10022824561</v>
       </c>
       <c r="E1782" s="1">
-        <v>12650477406</v>
+        <v>12743960631</v>
       </c>
       <c r="F1782" s="2">
-        <v>0.79200000000000004</v>
+        <v>0.78600000000000003</v>
       </c>
     </row>
     <row r="1783" spans="1:6" x14ac:dyDescent="0.25">
@@ -20223,10 +20220,10 @@
         <v>2119</v>
       </c>
       <c r="D1787" s="1">
-        <v>11099829557</v>
+        <v>11100678507</v>
       </c>
       <c r="E1787" s="1">
-        <v>12914055593</v>
+        <v>12914904543</v>
       </c>
       <c r="F1787" s="2">
         <v>0.86</v>
@@ -20307,10 +20304,10 @@
         <v>2120</v>
       </c>
       <c r="D1793" s="1">
-        <v>7953042181</v>
+        <v>7953891131</v>
       </c>
       <c r="E1793" s="1">
-        <v>9025393947</v>
+        <v>9026242897</v>
       </c>
       <c r="F1793" s="2">
         <v>0.88100000000000001</v>
@@ -20346,10 +20343,10 @@
         <v>9764589395</v>
       </c>
       <c r="E1796" s="1">
-        <v>18057135132</v>
+        <v>18150618357</v>
       </c>
       <c r="F1796" s="2">
-        <v>0.54100000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="1797" spans="1:6" x14ac:dyDescent="0.25">
@@ -20619,10 +20616,10 @@
         <v>2122</v>
       </c>
       <c r="D1814" s="1">
-        <v>8417206664</v>
+        <v>8418055614</v>
       </c>
       <c r="E1814" s="1">
-        <v>12176359694</v>
+        <v>12177208644</v>
       </c>
       <c r="F1814" s="2">
         <v>0.69099999999999995</v>
@@ -20667,10 +20664,10 @@
         <v>1844</v>
       </c>
       <c r="D1817" s="1">
-        <v>5460612353</v>
+        <v>5461461303</v>
       </c>
       <c r="E1817" s="1">
-        <v>38847248326</v>
+        <v>38848065804</v>
       </c>
       <c r="F1817" s="2">
         <v>0.14099999999999999</v>
@@ -20723,10 +20720,10 @@
         <v>1815</v>
       </c>
       <c r="D1821" s="1">
-        <v>7321787584</v>
+        <v>7322636534</v>
       </c>
       <c r="E1821" s="1">
-        <v>7854845090</v>
+        <v>7855694040</v>
       </c>
       <c r="F1821" s="2">
         <v>0.93200000000000005</v>
@@ -20910,7 +20907,7 @@
         <v>4373850401</v>
       </c>
       <c r="E1835" s="1">
-        <v>5978944827</v>
+        <v>5978947060</v>
       </c>
       <c r="F1835" s="2">
         <v>0.73199999999999998</v>
@@ -21278,10 +21275,10 @@
         <v>3892901173</v>
       </c>
       <c r="E1857" s="1">
-        <v>14017982704</v>
+        <v>14047121075</v>
       </c>
       <c r="F1857" s="2">
-        <v>0.27800000000000002</v>
+        <v>0.27700000000000002</v>
       </c>
     </row>
     <row r="1858" spans="1:6" x14ac:dyDescent="0.25">
@@ -21442,10 +21439,10 @@
         <v>3291869166</v>
       </c>
       <c r="E1867" s="1">
-        <v>4586164265</v>
+        <v>4599750922</v>
       </c>
       <c r="F1867" s="2">
-        <v>0.71799999999999997</v>
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="1868" spans="1:6" x14ac:dyDescent="0.25">
@@ -21498,10 +21495,10 @@
         <v>7968532026</v>
       </c>
       <c r="E1871" s="1">
-        <v>11678496392</v>
+        <v>11886391162</v>
       </c>
       <c r="F1871" s="2">
-        <v>0.68200000000000005</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="1872" spans="1:6" x14ac:dyDescent="0.25">
@@ -21702,10 +21699,10 @@
         <v>3920427058</v>
       </c>
       <c r="E1883" s="1">
-        <v>6986464229</v>
+        <v>7015602600</v>
       </c>
       <c r="F1883" s="2">
-        <v>0.56100000000000005</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="1884" spans="1:6" x14ac:dyDescent="0.25">
@@ -21775,10 +21772,10 @@
         <v>1859</v>
       </c>
       <c r="D1888" s="1">
-        <v>2478696075</v>
+        <v>2479545025</v>
       </c>
       <c r="E1888" s="1">
-        <v>3488185502</v>
+        <v>3489034452</v>
       </c>
       <c r="F1888" s="2">
         <v>0.71099999999999997</v>
@@ -21803,10 +21800,10 @@
         <v>1897</v>
       </c>
       <c r="D1890" s="1">
-        <v>2478696075</v>
+        <v>2479545025</v>
       </c>
       <c r="E1890" s="1">
-        <v>4489393502</v>
+        <v>4490242452</v>
       </c>
       <c r="F1890" s="2">
         <v>0.55200000000000005</v>
@@ -21871,10 +21868,10 @@
         <v>2126</v>
       </c>
       <c r="D1894" s="1">
-        <v>2285951286</v>
+        <v>2286800236</v>
       </c>
       <c r="E1894" s="1">
-        <v>2486840937</v>
+        <v>2487689887</v>
       </c>
       <c r="F1894" s="2">
         <v>0.91900000000000004</v>
@@ -21914,7 +21911,7 @@
         <v>1605638412</v>
       </c>
       <c r="E1896" s="1">
-        <v>12066879086</v>
+        <v>12066866350</v>
       </c>
       <c r="F1896" s="2">
         <v>0.13300000000000001</v>
@@ -22098,7 +22095,7 @@
         <v>1762608560</v>
       </c>
       <c r="E1907" s="1">
-        <v>7743382299</v>
+        <v>7743400772</v>
       </c>
       <c r="F1907" s="2">
         <v>0.22800000000000001</v>
@@ -22118,7 +22115,7 @@
         <v>2429149530</v>
       </c>
       <c r="E1908" s="1">
-        <v>8416735758</v>
+        <v>8416704286</v>
       </c>
       <c r="F1908" s="2">
         <v>0.28899999999999998</v>
@@ -22143,10 +22140,10 @@
         <v>1787</v>
       </c>
       <c r="D1910" s="1">
-        <v>3627045253</v>
+        <v>3627894203</v>
       </c>
       <c r="E1910" s="1">
-        <v>7860896227</v>
+        <v>7861745177</v>
       </c>
       <c r="F1910" s="2">
         <v>0.46100000000000002</v>
@@ -22306,51 +22303,51 @@
     </row>
     <row r="1921" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1921" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B1921">
         <v>2</v>
       </c>
       <c r="C1921" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D1921" s="1">
+        <v>2190479866</v>
+      </c>
+      <c r="E1921" s="1">
+        <v>2190479866</v>
+      </c>
+      <c r="F1921" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1922" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1922">
+        <v>2</v>
+      </c>
+      <c r="C1922" t="s">
         <v>1928</v>
       </c>
-      <c r="D1921" s="1">
+      <c r="D1922" s="1">
         <v>1780674070</v>
       </c>
-      <c r="E1921" s="1">
-        <v>3751831765</v>
-      </c>
-      <c r="F1921" s="2">
-        <v>0.47499999999999998</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1922" t="s">
+      <c r="E1922" s="1">
+        <v>3756165334</v>
+      </c>
+      <c r="F1922" s="2">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1923" t="s">
         <v>1891</v>
       </c>
-      <c r="D1922" s="1"/>
-      <c r="E1922" s="1"/>
-      <c r="F1922" s="2"/>
-    </row>
-    <row r="1923" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1923" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B1923">
-        <v>2</v>
-      </c>
-      <c r="C1923" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D1923" s="1">
-        <v>2190479866</v>
-      </c>
-      <c r="E1923" s="1">
-        <v>2190479866</v>
-      </c>
-      <c r="F1923" s="2">
-        <v>1</v>
-      </c>
+      <c r="D1923" s="1"/>
+      <c r="E1923" s="1"/>
+      <c r="F1923" s="2"/>
     </row>
     <row r="1924" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1924" t="s">
@@ -22454,7 +22451,7 @@
     </row>
     <row r="1932" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1932" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B1932">
         <v>2</v>
@@ -22463,13 +22460,13 @@
         <v>1891</v>
       </c>
       <c r="D1932" s="1">
-        <v>1093929134</v>
+        <v>1509327225</v>
       </c>
       <c r="E1932" s="1">
-        <v>1444182681</v>
+        <v>1606716793</v>
       </c>
       <c r="F1932" s="2">
-        <v>0.75700000000000001</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="1933" spans="1:6" x14ac:dyDescent="0.25">
@@ -22482,7 +22479,7 @@
     </row>
     <row r="1934" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1934" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B1934">
         <v>2</v>
@@ -22491,13 +22488,13 @@
         <v>1891</v>
       </c>
       <c r="D1934" s="1">
-        <v>1509327225</v>
+        <v>1093929134</v>
       </c>
       <c r="E1934" s="1">
-        <v>1606716793</v>
+        <v>1444182681</v>
       </c>
       <c r="F1934" s="2">
-        <v>0.93899999999999995</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="1935" spans="1:6" x14ac:dyDescent="0.25">
@@ -22643,13 +22640,13 @@
         <v>2128</v>
       </c>
       <c r="D1944" s="1">
-        <v>1707813680</v>
+        <v>1708662630</v>
       </c>
       <c r="E1944" s="1">
-        <v>2809858276</v>
+        <v>2824293883</v>
       </c>
       <c r="F1944" s="2">
-        <v>0.60799999999999998</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="1945" spans="1:6" x14ac:dyDescent="0.25">
@@ -22810,42 +22807,42 @@
     </row>
     <row r="1954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1954" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B1954">
         <v>2</v>
       </c>
       <c r="C1954" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="D1954" s="1">
-        <v>2190479866</v>
+        <v>1976320353</v>
       </c>
       <c r="E1954" s="1">
-        <v>3066597397</v>
+        <v>3906591223</v>
       </c>
       <c r="F1954" s="2">
-        <v>0.71399999999999997</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="1955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1955" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B1955">
         <v>2</v>
       </c>
       <c r="C1955" t="s">
-        <v>1946</v>
+        <v>1952</v>
       </c>
       <c r="D1955" s="1">
-        <v>1976320353</v>
+        <v>2190479866</v>
       </c>
       <c r="E1955" s="1">
-        <v>3905777214</v>
+        <v>3066597397</v>
       </c>
       <c r="F1955" s="2">
-        <v>0.50600000000000001</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="1956" spans="1:6" x14ac:dyDescent="0.25">
@@ -22986,62 +22983,62 @@
     </row>
     <row r="1964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1964" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="B1964">
         <v>2</v>
       </c>
       <c r="C1964" t="s">
-        <v>1952</v>
+        <v>1965</v>
       </c>
       <c r="D1964" s="1">
-        <v>1611410859</v>
+        <v>1828242760</v>
       </c>
       <c r="E1964" s="1">
-        <v>6013880608</v>
+        <v>1828242760</v>
       </c>
       <c r="F1964" s="2">
-        <v>0.26800000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1965" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B1965">
         <v>2</v>
       </c>
       <c r="C1965" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="D1965" s="1">
-        <v>1866301475</v>
+        <v>1611410859</v>
       </c>
       <c r="E1965" s="1">
-        <v>11069757761</v>
+        <v>6013880608</v>
       </c>
       <c r="F1965" s="2">
-        <v>0.16900000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="1966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1966" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="B1966">
         <v>2</v>
       </c>
       <c r="C1966" t="s">
-        <v>1965</v>
+        <v>1957</v>
       </c>
       <c r="D1966" s="1">
-        <v>1828242760</v>
+        <v>1866301475</v>
       </c>
       <c r="E1966" s="1">
-        <v>1828242760</v>
+        <v>11069757761</v>
       </c>
       <c r="F1966" s="2">
-        <v>1</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="1967" spans="1:6" x14ac:dyDescent="0.25">
@@ -23254,7 +23251,7 @@
         <v>2610709251</v>
       </c>
       <c r="E1978" s="1">
-        <v>14923322888</v>
+        <v>14921124881</v>
       </c>
       <c r="F1978" s="2">
         <v>0.17499999999999999</v>
@@ -23330,51 +23327,51 @@
     </row>
     <row r="1983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1983" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="B1983">
         <v>2</v>
       </c>
       <c r="C1983" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D1983" s="1">
+        <v>1234517698</v>
+      </c>
+      <c r="E1983" s="1">
+        <v>11404785943</v>
+      </c>
+      <c r="F1983" s="2">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1984" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1984">
+        <v>2</v>
+      </c>
+      <c r="C1984" t="s">
         <v>1910</v>
       </c>
-      <c r="D1983" s="1">
+      <c r="D1984" s="1">
         <v>834205079</v>
       </c>
-      <c r="E1983" s="1">
+      <c r="E1984" s="1">
         <v>2398678704</v>
       </c>
-      <c r="F1983" s="2">
+      <c r="F1984" s="2">
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="1984" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1984" t="s">
+    <row r="1985" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1985" t="s">
         <v>1992</v>
       </c>
-      <c r="D1984" s="1"/>
-      <c r="E1984" s="1"/>
-      <c r="F1984" s="2"/>
-    </row>
-    <row r="1985" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1985" t="s">
-        <v>1993</v>
-      </c>
-      <c r="B1985">
-        <v>2</v>
-      </c>
-      <c r="C1985" t="s">
-        <v>1994</v>
-      </c>
-      <c r="D1985" s="1">
-        <v>1234517698</v>
-      </c>
-      <c r="E1985" s="1">
-        <v>11404785943</v>
-      </c>
-      <c r="F1985" s="2">
-        <v>0.108</v>
-      </c>
+      <c r="D1985" s="1"/>
+      <c r="E1985" s="1"/>
+      <c r="F1985" s="2"/>
     </row>
     <row r="1986" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1986" t="s">
@@ -23546,51 +23543,51 @@
     </row>
     <row r="1995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1995" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B1995">
         <v>2</v>
       </c>
       <c r="C1995" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D1995" s="1">
+        <v>2084332508</v>
+      </c>
+      <c r="E1995" s="1">
+        <v>2516274647</v>
+      </c>
+      <c r="F1995" s="2">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1996" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D1996" s="1"/>
+      <c r="E1996" s="1"/>
+      <c r="F1996" s="2"/>
+    </row>
+    <row r="1997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1997" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B1997">
+        <v>2</v>
+      </c>
+      <c r="C1997" t="s">
         <v>1978</v>
       </c>
-      <c r="D1995" s="1">
+      <c r="D1997" s="1">
         <v>1805919268</v>
       </c>
-      <c r="E1995" s="1">
+      <c r="E1997" s="1">
         <v>1913270459</v>
       </c>
-      <c r="F1995" s="2">
+      <c r="F1997" s="2">
         <v>0.94399999999999995</v>
       </c>
-    </row>
-    <row r="1996" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1996" t="s">
-        <v>2006</v>
-      </c>
-      <c r="B1996">
-        <v>2</v>
-      </c>
-      <c r="C1996" t="s">
-        <v>2007</v>
-      </c>
-      <c r="D1996" s="1">
-        <v>2084332508</v>
-      </c>
-      <c r="E1996" s="1">
-        <v>2516274647</v>
-      </c>
-      <c r="F1996" s="2">
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="1997" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1997" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D1997" s="1"/>
-      <c r="E1997" s="1"/>
-      <c r="F1997" s="2"/>
     </row>
     <row r="1998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1998" t="s">
@@ -23730,51 +23727,51 @@
     </row>
     <row r="2006" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2006" t="s">
-        <v>2129</v>
+        <v>2022</v>
       </c>
       <c r="B2006">
         <v>2</v>
       </c>
       <c r="C2006" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D2006" s="1">
+        <v>1765886755</v>
+      </c>
+      <c r="E2006" s="1">
+        <v>12372469953</v>
+      </c>
+      <c r="F2006" s="2">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2007" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B2007">
+        <v>2</v>
+      </c>
+      <c r="C2007" t="s">
         <v>1784</v>
       </c>
-      <c r="D2006" s="1">
-        <v>1553127606</v>
-      </c>
-      <c r="E2006" s="1">
-        <v>5546447203</v>
-      </c>
-      <c r="F2006" s="2">
+      <c r="D2007" s="1">
+        <v>1553976556</v>
+      </c>
+      <c r="E2007" s="1">
+        <v>5547296153</v>
+      </c>
+      <c r="F2007" s="2">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="2007" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2007" t="s">
+    <row r="2008" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2008" t="s">
         <v>2028</v>
       </c>
-      <c r="D2007" s="1"/>
-      <c r="E2007" s="1"/>
-      <c r="F2007" s="2"/>
-    </row>
-    <row r="2008" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2008" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B2008">
-        <v>2</v>
-      </c>
-      <c r="C2008" t="s">
-        <v>2023</v>
-      </c>
-      <c r="D2008" s="1">
-        <v>1765886755</v>
-      </c>
-      <c r="E2008" s="1">
-        <v>12372469953</v>
-      </c>
-      <c r="F2008" s="2">
-        <v>0.14299999999999999</v>
-      </c>
+      <c r="D2008" s="1"/>
+      <c r="E2008" s="1"/>
+      <c r="F2008" s="2"/>
     </row>
     <row r="2009" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2009" t="s">
@@ -23807,10 +23804,10 @@
         <v>1919</v>
       </c>
       <c r="D2010" s="1">
-        <v>1968301811</v>
+        <v>1969150761</v>
       </c>
       <c r="E2010" s="1">
-        <v>5055414096</v>
+        <v>5056263046</v>
       </c>
       <c r="F2010" s="2">
         <v>0.38900000000000001</v>
@@ -23974,7 +23971,7 @@
         <v>1843977983</v>
       </c>
       <c r="E2020" s="1">
-        <v>3815366511</v>
+        <v>3815415355</v>
       </c>
       <c r="F2020" s="2">
         <v>0.48299999999999998</v>
@@ -24071,10 +24068,10 @@
         <v>2018</v>
       </c>
       <c r="D2025" s="1">
-        <v>1968301811</v>
+        <v>1969150761</v>
       </c>
       <c r="E2025" s="1">
-        <v>6688337250</v>
+        <v>6689186200</v>
       </c>
       <c r="F2025" s="2">
         <v>0.29399999999999998</v>
@@ -24197,47 +24194,47 @@
     </row>
     <row r="2051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2051" t="s">
-        <v>2166</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="2052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2052" t="s">
-        <v>2188</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="2053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2053" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="2054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2054" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="2055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2055" t="s">
-        <v>105</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="2056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2056" t="s">
-        <v>2180</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2057" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="2058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2058" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="2059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2059" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="2061" spans="1:1" x14ac:dyDescent="0.25">
@@ -24247,27 +24244,27 @@
     </row>
     <row r="2062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2062" t="s">
-        <v>2154</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="2063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2063" t="s">
-        <v>2179</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="2064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2064" t="s">
-        <v>2131</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="2065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2065" t="s">
-        <v>2169</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="2066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2066" t="s">
-        <v>2194</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="2067" spans="1:1" x14ac:dyDescent="0.25">
@@ -24277,22 +24274,22 @@
     </row>
     <row r="2068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2068" t="s">
-        <v>2058</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="2069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2069" t="s">
-        <v>2141</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="2070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2070" t="s">
-        <v>2155</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="2071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2071" t="s">
-        <v>2195</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="2073" spans="1:1" x14ac:dyDescent="0.25">
@@ -24307,47 +24304,47 @@
     </row>
     <row r="2075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2075" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="2076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2076" t="s">
-        <v>2197</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="2077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2077" t="s">
-        <v>1526</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="2078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2078" t="s">
-        <v>2170</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="2079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2079" t="s">
-        <v>2181</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="2080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2080" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="2081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2081" t="s">
-        <v>2199</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="2082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2082" t="s">
-        <v>2060</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="2083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2083" t="s">
-        <v>1508</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="2089" spans="1:1" x14ac:dyDescent="0.25">
@@ -24372,6 +24369,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>